--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>3.128759524928847</v>
+        <v>0.9784624966711969</v>
       </c>
       <c r="C2">
-        <v>79.74491630444248</v>
+        <v>24.93876863414581</v>
       </c>
       <c r="D2">
-        <v>0.01661809961943726</v>
+        <v>0.005197007668377784</v>
       </c>
       <c r="E2">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="F2">
-        <v>4.247806054593393</v>
+        <v>1.328423895935881</v>
       </c>
       <c r="G2">
-        <v>28.70487261456467</v>
+        <v>8.976925551897232</v>
       </c>
       <c r="H2">
-        <v>0.4573827483220674</v>
+        <v>0.1430381153590644</v>
       </c>
       <c r="I2">
-        <v>12.89083084615258</v>
+        <v>4.031372316534736</v>
       </c>
       <c r="J2">
-        <v>5.225589330980495</v>
+        <v>1.63420778830416</v>
       </c>
       <c r="K2">
-        <v>26.31799176653127</v>
+        <v>8.230472085206936</v>
       </c>
       <c r="L2">
-        <v>7.27818484397761</v>
+        <v>2.276119611281009</v>
       </c>
       <c r="M2">
-        <v>44.32998403355089</v>
+        <v>13.86339426512779</v>
       </c>
       <c r="N2">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O2">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P2">
-        <v>222.3945356120002</v>
+        <v>69.54983622971083</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>3.09320543941829</v>
+        <v>0.9673436046635703</v>
       </c>
       <c r="C3">
-        <v>78.83872407371024</v>
+        <v>24.6553735360305</v>
       </c>
       <c r="D3">
-        <v>0.01765673084565209</v>
+        <v>0.005521820647651395</v>
       </c>
       <c r="E3">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="F3">
-        <v>4.854635490963878</v>
+        <v>1.518198738212436</v>
       </c>
       <c r="G3">
-        <v>32.80556870235962</v>
+        <v>10.25934348788256</v>
       </c>
       <c r="H3">
-        <v>0.4426284661181299</v>
+        <v>0.1384239826055462</v>
       </c>
       <c r="I3">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="J3">
-        <v>5.270832528651322</v>
+        <v>1.648356773484283</v>
       </c>
       <c r="K3">
-        <v>26.5458531671073</v>
+        <v>8.301731583780155</v>
       </c>
       <c r="L3">
-        <v>8.178578845294426</v>
+        <v>2.557701418862164</v>
       </c>
       <c r="M3">
-        <v>49.81410576966029</v>
+        <v>15.5784533494735</v>
       </c>
       <c r="N3">
-        <v>0.2546107017020591</v>
+        <v>0.07962485479681204</v>
       </c>
       <c r="O3">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="P3">
-        <v>233.0017552950872</v>
+        <v>72.86705079067619</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>3.496744309963092</v>
+        <v>1.093543028950138</v>
       </c>
       <c r="C4">
-        <v>89.12400589252188</v>
+        <v>27.87190789963909</v>
       </c>
       <c r="D4">
-        <v>0.01800294125439037</v>
+        <v>0.0056300916407426</v>
       </c>
       <c r="E4">
-        <v>6.511687803667479</v>
+        <v>2.036411636993661</v>
       </c>
       <c r="F4">
-        <v>5.279416096423216</v>
+        <v>1.651041127806025</v>
       </c>
       <c r="G4">
-        <v>35.67605596381608</v>
+        <v>11.15703604307228</v>
       </c>
       <c r="H4">
-        <v>0.5163998771378182</v>
+        <v>0.1614946463731372</v>
       </c>
       <c r="I4">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="J4">
-        <v>6.220939679738685</v>
+        <v>1.945485462266856</v>
       </c>
       <c r="K4">
-        <v>31.33094257920389</v>
+        <v>9.798181053817778</v>
       </c>
       <c r="L4">
-        <v>6.227725175774655</v>
+        <v>1.947607502436326</v>
       </c>
       <c r="M4">
-        <v>37.93184200808994</v>
+        <v>11.8624920000578</v>
       </c>
       <c r="N4">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O4">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P4">
-        <v>239.2648736582032</v>
+        <v>74.82572686715129</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>3.77406617694542</v>
+        <v>1.180270386609631</v>
       </c>
       <c r="C5">
-        <v>96.19230529223373</v>
+        <v>30.08238966493839</v>
       </c>
       <c r="D5">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E5">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F5">
-        <v>5.400781983697311</v>
+        <v>1.688996096261335</v>
       </c>
       <c r="G5">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="H5">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I5">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J5">
-        <v>5.406562121663802</v>
+        <v>1.69080372902465</v>
       </c>
       <c r="K5">
-        <v>27.22943736883538</v>
+        <v>8.515510079499816</v>
       </c>
       <c r="L5">
-        <v>4.201838672811818</v>
+        <v>1.314048435378727</v>
       </c>
       <c r="M5">
-        <v>25.59256810184381</v>
+        <v>8.003609060279958</v>
       </c>
       <c r="N5">
-        <v>0.09901527288413411</v>
+        <v>0.03096522130987137</v>
       </c>
       <c r="O5">
-        <v>1.564847957552742</v>
+        <v>0.4893776678131564</v>
       </c>
       <c r="P5">
-        <v>226.0331991396598</v>
+        <v>70.68776190646966</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>4.58292162231055</v>
+        <v>1.433225179783151</v>
       </c>
       <c r="C6">
-        <v>116.8081785413937</v>
+        <v>36.52962814706128</v>
       </c>
       <c r="D6">
-        <v>0.01696431002817554</v>
+        <v>0.005305278661468988</v>
       </c>
       <c r="E6">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="F6">
-        <v>3.823025449134053</v>
+        <v>1.195581506342293</v>
       </c>
       <c r="G6">
-        <v>25.8343853531082</v>
+        <v>8.07923299670751</v>
       </c>
       <c r="H6">
-        <v>1.018045472071699</v>
+        <v>0.3183751599927563</v>
       </c>
       <c r="I6">
-        <v>28.69249446401702</v>
+        <v>8.97305451099667</v>
       </c>
       <c r="J6">
-        <v>3.868293400855691</v>
+        <v>1.209738232900482</v>
       </c>
       <c r="K6">
-        <v>19.48214974925042</v>
+        <v>6.092687128010329</v>
       </c>
       <c r="L6">
-        <v>2.326017836735113</v>
+        <v>0.727419669584652</v>
       </c>
       <c r="M6">
-        <v>14.16731448494926</v>
+        <v>4.430569301226404</v>
       </c>
       <c r="N6">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O6">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P6">
-        <v>231.7473938824665</v>
+        <v>72.47477212888012</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>4.57581080520844</v>
+        <v>1.431001401381626</v>
       </c>
       <c r="C7">
-        <v>116.6269400952471</v>
+        <v>36.47294912743823</v>
       </c>
       <c r="D7">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E7">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F7">
-        <v>2.73073246366718</v>
+        <v>0.8539867902444953</v>
       </c>
       <c r="G7">
-        <v>18.45313239507728</v>
+        <v>5.770880711933936</v>
       </c>
       <c r="H7">
-        <v>1.121325447499262</v>
+        <v>0.3506740892673836</v>
       </c>
       <c r="I7">
-        <v>31.6033272357289</v>
+        <v>9.883364388923869</v>
       </c>
       <c r="J7">
-        <v>2.216916685870514</v>
+        <v>0.6933002738260072</v>
       </c>
       <c r="K7">
-        <v>11.16520862822539</v>
+        <v>3.491715430087791</v>
       </c>
       <c r="L7">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M7">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N7">
-        <v>0.1697404678013728</v>
+        <v>0.05308323653120803</v>
       </c>
       <c r="O7">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="P7">
-        <v>202.7167917430949</v>
+        <v>63.39598060692585</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>3.196312287398902</v>
+        <v>0.9995883914856887</v>
       </c>
       <c r="C8">
-        <v>81.46668154283388</v>
+        <v>25.47721932056487</v>
       </c>
       <c r="D8">
-        <v>0.009693891444671737</v>
+        <v>0.003031587806553708</v>
       </c>
       <c r="E8">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="F8">
-        <v>2.366634801844889</v>
+        <v>0.7401218848785625</v>
       </c>
       <c r="G8">
-        <v>15.99271474240032</v>
+        <v>5.001429950342744</v>
       </c>
       <c r="H8">
-        <v>0.7229598279929453</v>
+        <v>0.2260925049223921</v>
       </c>
       <c r="I8">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="J8">
-        <v>1.696619912656005</v>
+        <v>0.5305869442545972</v>
       </c>
       <c r="K8">
-        <v>8.544802521601063</v>
+        <v>2.672231196495759</v>
       </c>
       <c r="L8">
-        <v>1.350591001975226</v>
+        <v>0.4223727113717335</v>
       </c>
       <c r="M8">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="N8">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O8">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P8">
-        <v>147.6930107162444</v>
+        <v>46.18829630557457</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.609669876474743</v>
+        <v>0.8161266733598389</v>
       </c>
       <c r="C9">
-        <v>66.51450973575092</v>
+        <v>20.80120020166252</v>
       </c>
       <c r="D9">
-        <v>0.008655260218456909</v>
+        <v>0.002706774827280095</v>
       </c>
       <c r="E9">
-        <v>3.130619136378595</v>
+        <v>0.9790440562469523</v>
       </c>
       <c r="F9">
-        <v>1.699122421837357</v>
+        <v>0.5313695583743526</v>
       </c>
       <c r="G9">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="H9">
-        <v>1.077062600887449</v>
+        <v>0.336831691006829</v>
       </c>
       <c r="I9">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="J9">
-        <v>0.972728749922776</v>
+        <v>0.3042031813726357</v>
       </c>
       <c r="K9">
-        <v>4.899020112384608</v>
+        <v>1.532079219324235</v>
       </c>
       <c r="L9">
-        <v>0.7503283344306815</v>
+        <v>0.2346515063176297</v>
       </c>
       <c r="M9">
-        <v>4.570101446757825</v>
+        <v>1.429215903621422</v>
       </c>
       <c r="N9">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O9">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P9">
-        <v>128.7826784389089</v>
+        <v>40.27443466630896</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.93058684322314</v>
+        <v>0.6037558360141589</v>
       </c>
       <c r="C10">
-        <v>49.20623812876398</v>
+        <v>15.38835382766042</v>
       </c>
       <c r="D10">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E10">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F10">
-        <v>1.335024760015066</v>
+        <v>0.41750465300842</v>
       </c>
       <c r="G10">
-        <v>9.021531393148898</v>
+        <v>2.821319459167702</v>
       </c>
       <c r="H10">
-        <v>0.7082055457890077</v>
+        <v>0.2214783721688738</v>
       </c>
       <c r="I10">
-        <v>19.95999614888142</v>
+        <v>6.242124877215074</v>
       </c>
       <c r="J10">
-        <v>0.8822423545811225</v>
+        <v>0.2759052110123907</v>
       </c>
       <c r="K10">
-        <v>4.443297311232553</v>
+        <v>1.389560222177795</v>
       </c>
       <c r="L10">
-        <v>0.7503283344306815</v>
+        <v>0.2346515063176297</v>
       </c>
       <c r="M10">
-        <v>4.570101446757825</v>
+        <v>1.429215903621422</v>
       </c>
       <c r="N10">
-        <v>0.0565801559337909</v>
+        <v>0.01769441217706934</v>
       </c>
       <c r="O10">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="P10">
-        <v>96.01860882119466</v>
+        <v>30.02806926052192</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.480827661514619</v>
+        <v>0.4631018521176742</v>
       </c>
       <c r="C11">
-        <v>37.74290641000036</v>
+        <v>11.80340583650197</v>
       </c>
       <c r="D11">
-        <v>0.01004010185341001</v>
+        <v>0.003139858799644911</v>
       </c>
       <c r="E11">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="F11">
-        <v>1.335024760015066</v>
+        <v>0.41750465300842</v>
       </c>
       <c r="G11">
-        <v>9.021531393148898</v>
+        <v>2.821319459167702</v>
       </c>
       <c r="H11">
-        <v>0.3245942084866286</v>
+        <v>0.1015109205774005</v>
       </c>
       <c r="I11">
-        <v>9.148331568237312</v>
+        <v>2.86097390205691</v>
       </c>
       <c r="J11">
-        <v>0.9048639534165358</v>
+        <v>0.2829797036024519</v>
       </c>
       <c r="K11">
-        <v>4.557228011520565</v>
+        <v>1.425189971464405</v>
       </c>
       <c r="L11">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M11">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N11">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O11">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P11">
-        <v>76.85059517979113</v>
+        <v>24.03362247279005</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.9119622933457374</v>
+        <v>0.2851995799956386</v>
       </c>
       <c r="C12">
-        <v>23.24383071828354</v>
+        <v>7.269084266657271</v>
       </c>
       <c r="D12">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E12">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F12">
-        <v>0.3034147181852423</v>
+        <v>0.09488742113827726</v>
       </c>
       <c r="G12">
-        <v>2.050348043897476</v>
+        <v>0.6412089679926597</v>
       </c>
       <c r="H12">
-        <v>0.1180342576315013</v>
+        <v>0.03691306202814566</v>
       </c>
       <c r="I12">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="J12">
-        <v>0.5429183720499215</v>
+        <v>0.1697878221614711</v>
       </c>
       <c r="K12">
-        <v>2.73433680691234</v>
+        <v>0.8551139828786426</v>
       </c>
       <c r="L12">
-        <v>1.20052533508909</v>
+        <v>0.3754424101082076</v>
       </c>
       <c r="M12">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="P12">
-        <v>45.13461523334575</v>
+        <v>14.11502800251727</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.568865368168881</v>
+        <v>0.1779022721220358</v>
       </c>
       <c r="C13">
-        <v>14.49907569171682</v>
+        <v>4.534321569844692</v>
       </c>
       <c r="D13">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E13">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F13">
-        <v>0.2427317745481938</v>
+        <v>0.0759099369106218</v>
       </c>
       <c r="G13">
-        <v>1.640278435117981</v>
+        <v>0.5129671743941278</v>
       </c>
       <c r="H13">
-        <v>0.05901712881575067</v>
+        <v>0.01845653101407283</v>
       </c>
       <c r="I13">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="J13">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K13">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L13">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M13">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N13">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O13">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P13">
-        <v>35.40515660522023</v>
+        <v>11.072317207813</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.3573185593810784</v>
+        <v>0.1117448646766537</v>
       </c>
       <c r="C14">
-        <v>9.107231918859632</v>
+        <v>2.848120736058697</v>
       </c>
       <c r="D14">
-        <v>0.009347681035933461</v>
+        <v>0.002923316813462504</v>
       </c>
       <c r="E14">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="F14">
-        <v>0.2427317745481938</v>
+        <v>0.0759099369106218</v>
       </c>
       <c r="G14">
-        <v>1.640278435117981</v>
+        <v>0.5129671743941278</v>
       </c>
       <c r="H14">
-        <v>0.04426284661181298</v>
+        <v>0.01384239826055461</v>
       </c>
       <c r="I14">
-        <v>1.247499759305088</v>
+        <v>0.3901328048259421</v>
       </c>
       <c r="J14">
-        <v>0.6107831685561618</v>
+        <v>0.191011299931655</v>
       </c>
       <c r="K14">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="L14">
-        <v>2.401050670178179</v>
+        <v>0.7508848202164151</v>
       </c>
       <c r="M14">
-        <v>14.62432462962504</v>
+        <v>4.573490891588548</v>
       </c>
       <c r="N14">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O14">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P14">
-        <v>36.97972176548964</v>
+        <v>11.56473375360801</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,43 +1124,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2648779370536352</v>
+        <v>0.0828357454568229</v>
       </c>
       <c r="C15">
-        <v>6.751132118955645</v>
+        <v>2.111293480958935</v>
       </c>
       <c r="D15">
-        <v>0.005885576948550698</v>
+        <v>0.001840606882550465</v>
       </c>
       <c r="E15">
-        <v>2.128821012737445</v>
+        <v>0.6657499582479277</v>
       </c>
       <c r="F15">
-        <v>0.1820488309111454</v>
+        <v>0.05693245268296635</v>
       </c>
       <c r="G15">
-        <v>1.230208826338486</v>
+        <v>0.3847253807955957</v>
       </c>
       <c r="J15">
-        <v>0.4071887790374412</v>
+        <v>0.1273408666211033</v>
       </c>
       <c r="K15">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="L15">
-        <v>1.875820836076704</v>
+        <v>0.5866287657940744</v>
       </c>
       <c r="M15">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="N15">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O15">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P15">
-        <v>26.7973796345484</v>
+        <v>8.380391900544804</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,49 +1168,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2790995712578574</v>
+        <v>0.0872833022598738</v>
       </c>
       <c r="C16">
-        <v>7.113609011248566</v>
+        <v>2.224651520205053</v>
       </c>
       <c r="D16">
-        <v>0.003115893678644487</v>
+        <v>0.0009744389378208344</v>
       </c>
       <c r="E16">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="F16">
-        <v>0.6068294363704847</v>
+        <v>0.1897748422765545</v>
       </c>
       <c r="G16">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="H16">
-        <v>0.07377141101968832</v>
+        <v>0.02307066376759103</v>
       </c>
       <c r="I16">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="J16">
-        <v>0.4750535755436814</v>
+        <v>0.1485643443912872</v>
       </c>
       <c r="K16">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="L16">
-        <v>2.175952169848975</v>
+        <v>0.6804893683211259</v>
       </c>
       <c r="M16">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="N16">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O16">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P16">
-        <v>33.91784996021888</v>
+        <v>10.60718917173718</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,49 +1218,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.6381958349144635</v>
+        <v>0.1995841115369089</v>
       </c>
       <c r="C17">
-        <v>16.26615054164481</v>
+        <v>5.086942011169514</v>
       </c>
       <c r="D17">
-        <v>0.003115893678644487</v>
+        <v>0.0009744389378208344</v>
       </c>
       <c r="E17">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="F17">
-        <v>0.6068294363704847</v>
+        <v>0.1897748422765545</v>
       </c>
       <c r="G17">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="H17">
-        <v>0.04426284661181298</v>
+        <v>0.01384239826055461</v>
       </c>
       <c r="I17">
-        <v>1.247499759305088</v>
+        <v>0.3901328048259421</v>
       </c>
       <c r="J17">
-        <v>0.8596207557457091</v>
+        <v>0.2688307184223293</v>
       </c>
       <c r="K17">
-        <v>4.329366610944539</v>
+        <v>1.353930472891185</v>
       </c>
       <c r="L17">
-        <v>2.926280504279659</v>
+        <v>0.9151408746387559</v>
       </c>
       <c r="M17">
-        <v>17.82339564235552</v>
+        <v>5.573942024123544</v>
       </c>
       <c r="N17">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O17">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P17">
-        <v>50.44782629715251</v>
+        <v>15.77663789020962</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1268,49 +1268,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.36172147505426</v>
+        <v>0.4258535638921231</v>
       </c>
       <c r="C18">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="D18">
-        <v>0.005193156131074145</v>
+        <v>0.001624064896368057</v>
       </c>
       <c r="E18">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="F18">
-        <v>1.274341816378017</v>
+        <v>0.3985271687807646</v>
       </c>
       <c r="G18">
-        <v>8.611461784369403</v>
+        <v>2.693077665569171</v>
       </c>
       <c r="H18">
-        <v>0.5016455949338807</v>
+        <v>0.156880513619619</v>
       </c>
       <c r="I18">
-        <v>14.13833060545767</v>
+        <v>4.421505121360679</v>
       </c>
       <c r="J18">
-        <v>1.990700697516379</v>
+        <v>0.6225553479253941</v>
       </c>
       <c r="K18">
-        <v>10.02590162534525</v>
+        <v>3.135417937221689</v>
       </c>
       <c r="L18">
-        <v>3.826674505596475</v>
+        <v>1.196722682219912</v>
       </c>
       <c r="M18">
-        <v>23.30751737846491</v>
+        <v>7.289001108469245</v>
       </c>
       <c r="N18">
-        <v>0.08487023390068639</v>
+        <v>0.02654161826560402</v>
       </c>
       <c r="O18">
-        <v>1.341298249330922</v>
+        <v>0.419466572411277</v>
       </c>
       <c r="P18">
-        <v>103.0551910413532</v>
+        <v>32.22863205619575</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,49 +1318,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.375012912105078</v>
+        <v>0.7427419861094992</v>
       </c>
       <c r="C19">
-        <v>60.53364101291772</v>
+        <v>18.93079255410158</v>
       </c>
       <c r="D19">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E19">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F19">
-        <v>3.337561900037665</v>
+        <v>1.04376163252105</v>
       </c>
       <c r="G19">
-        <v>22.55382848287225</v>
+        <v>7.053298647919255</v>
       </c>
       <c r="H19">
-        <v>1.372148244966203</v>
+        <v>0.4291143460771931</v>
       </c>
       <c r="I19">
-        <v>38.67249253845776</v>
+        <v>12.09411694960421</v>
       </c>
       <c r="J19">
-        <v>3.66469901133697</v>
+        <v>1.14606779958993</v>
       </c>
       <c r="K19">
-        <v>18.4567734466583</v>
+        <v>5.772019384430838</v>
       </c>
       <c r="L19">
-        <v>5.402364007900904</v>
+        <v>1.689490845486934</v>
       </c>
       <c r="M19">
-        <v>32.90473041665635</v>
+        <v>10.29035450607423</v>
       </c>
       <c r="N19">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O19">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P19">
-        <v>193.9104770115117</v>
+        <v>60.64196623474962</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>4.04427722682564</v>
+        <v>1.264773965867598</v>
       </c>
       <c r="C20">
-        <v>103.0793662457992</v>
+        <v>32.2361924106146</v>
       </c>
       <c r="D20">
-        <v>0.006924208174765525</v>
+        <v>0.002165419861824076</v>
       </c>
       <c r="E20">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="F20">
-        <v>4.126440167319296</v>
+        <v>1.290468927480571</v>
       </c>
       <c r="G20">
-        <v>27.88473339700568</v>
+        <v>8.72044196470017</v>
       </c>
       <c r="H20">
-        <v>1.342639680558328</v>
+        <v>0.4198860805701566</v>
       </c>
       <c r="I20">
-        <v>37.84082603225434</v>
+        <v>11.83402841305358</v>
       </c>
       <c r="J20">
-        <v>4.162374185716066</v>
+        <v>1.301706636571279</v>
       </c>
       <c r="K20">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="L20">
-        <v>7.428250510863745</v>
+        <v>2.323049912544534</v>
       </c>
       <c r="M20">
-        <v>45.24400432290248</v>
+        <v>14.14923744585207</v>
       </c>
       <c r="N20">
-        <v>0.2829007796689545</v>
+        <v>0.08847206088534676</v>
       </c>
       <c r="O20">
-        <v>4.470994164436404</v>
+        <v>1.39822190803759</v>
       </c>
       <c r="P20">
-        <v>263.3814750836224</v>
+        <v>82.36775425977314</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>4.262934852715556</v>
+        <v>1.333155151714505</v>
       </c>
       <c r="C21">
-        <v>108.6524484648029</v>
+        <v>33.97907226402366</v>
       </c>
       <c r="D21">
-        <v>0.01038631226214829</v>
+        <v>0.003248129792736114</v>
       </c>
       <c r="E21">
-        <v>3.756742963654315</v>
+        <v>1.174852867496343</v>
       </c>
       <c r="F21">
-        <v>3.276878956400616</v>
+        <v>1.024784148293395</v>
       </c>
       <c r="G21">
-        <v>22.14375887409274</v>
+        <v>6.925056854320723</v>
       </c>
       <c r="H21">
-        <v>0.9295197788480727</v>
+        <v>0.290690363471647</v>
       </c>
       <c r="I21">
-        <v>26.19749494540685</v>
+        <v>8.192788901344789</v>
       </c>
       <c r="J21">
-        <v>3.59683421483073</v>
+        <v>1.124844321819747</v>
       </c>
       <c r="K21">
-        <v>18.11498134579425</v>
+        <v>5.665130136571007</v>
       </c>
       <c r="L21">
-        <v>6.077659508888519</v>
+        <v>1.9006772011728</v>
       </c>
       <c r="M21">
-        <v>37.01782171873838</v>
+        <v>11.57664881933351</v>
       </c>
       <c r="N21">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O21">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P21">
-        <v>237.3651883973089</v>
+        <v>74.23163493760093</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>3.429191547493037</v>
+        <v>1.072417134135647</v>
       </c>
       <c r="C22">
-        <v>87.40224065413048</v>
+        <v>27.33345721322004</v>
       </c>
       <c r="D22">
-        <v>0.01488704757574588</v>
+        <v>0.004655652702921764</v>
       </c>
       <c r="E22">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="F22">
-        <v>5.704196701882556</v>
+        <v>1.783883517399613</v>
       </c>
       <c r="G22">
-        <v>38.54654322527257</v>
+        <v>12.054728598262</v>
       </c>
       <c r="H22">
-        <v>0.7229598279929453</v>
+        <v>0.2260925049223921</v>
       </c>
       <c r="I22">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="J22">
-        <v>6.039966889055377</v>
+        <v>1.888889521546367</v>
       </c>
       <c r="K22">
-        <v>30.41949697689978</v>
+        <v>9.5131430595249</v>
       </c>
       <c r="L22">
-        <v>10.72969518235875</v>
+        <v>3.355516540342105</v>
       </c>
       <c r="M22">
-        <v>65.35245068863688</v>
+        <v>20.43778742178632</v>
       </c>
       <c r="N22">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O22">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P22">
-        <v>278.162933760342</v>
+        <v>86.99038595966195</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.693221977424546</v>
+        <v>0.8422560695777631</v>
       </c>
       <c r="C23">
-        <v>68.6440614779718</v>
+        <v>21.46717868223347</v>
       </c>
       <c r="D23">
-        <v>0.01488704757574588</v>
+        <v>0.004655652702921764</v>
       </c>
       <c r="E23">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="F23">
-        <v>4.611903716415684</v>
+        <v>1.442288801301814</v>
       </c>
       <c r="G23">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="H23">
-        <v>0.4426284661181299</v>
+        <v>0.1384239826055462</v>
       </c>
       <c r="I23">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="J23">
-        <v>5.949480493713722</v>
+        <v>1.860591551186122</v>
       </c>
       <c r="K23">
-        <v>29.96377417574773</v>
+        <v>9.370624062378457</v>
       </c>
       <c r="L23">
-        <v>10.42956384858647</v>
+        <v>3.261655937815054</v>
       </c>
       <c r="M23">
-        <v>63.52441010993378</v>
+        <v>19.86610106033775</v>
       </c>
       <c r="N23">
-        <v>0.1414503898344773</v>
+        <v>0.04423603044267338</v>
       </c>
       <c r="O23">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="P23">
-        <v>237.675831560404</v>
+        <v>74.32878292309297</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>3.059429058183265</v>
+        <v>0.9567806572563233</v>
       </c>
       <c r="C24">
-        <v>77.97784145451452</v>
+        <v>24.38614819282099</v>
       </c>
       <c r="D24">
-        <v>0.01523325798448415</v>
+        <v>0.004763923696012969</v>
       </c>
       <c r="E24">
-        <v>5.509889680026329</v>
+        <v>1.723117538994636</v>
       </c>
       <c r="F24">
-        <v>4.793952547326828</v>
+        <v>1.499221253984781</v>
       </c>
       <c r="G24">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="H24">
-        <v>0.6786969813811325</v>
+        <v>0.2122501066618375</v>
       </c>
       <c r="I24">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="J24">
-        <v>6.175696482067859</v>
+        <v>1.931336477086734</v>
       </c>
       <c r="K24">
-        <v>31.10308117862786</v>
+        <v>9.72692155524456</v>
       </c>
       <c r="L24">
-        <v>9.229038513497381</v>
+        <v>2.886213527706846</v>
       </c>
       <c r="M24">
-        <v>56.21224779512124</v>
+        <v>17.57935561454348</v>
       </c>
       <c r="N24">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O24">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P24">
-        <v>251.2705253762997</v>
+        <v>78.58027555031376</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.934989758896323</v>
+        <v>0.9178645352296283</v>
       </c>
       <c r="C25">
-        <v>74.80616864695149</v>
+        <v>23.39426534941746</v>
       </c>
       <c r="D25">
-        <v>0.01419462675826933</v>
+        <v>0.004439110716739357</v>
       </c>
       <c r="E25">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="F25">
-        <v>3.458927787311763</v>
+        <v>1.08171660097636</v>
       </c>
       <c r="G25">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="H25">
-        <v>0.6491884169732571</v>
+        <v>0.203021841154801</v>
       </c>
       <c r="I25">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="J25">
-        <v>4.162374185716066</v>
+        <v>1.301706636571279</v>
       </c>
       <c r="K25">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="L25">
-        <v>8.103546011851359</v>
+        <v>2.534236268230401</v>
       </c>
       <c r="M25">
-        <v>49.35709562498452</v>
+        <v>15.43553175911135</v>
       </c>
       <c r="N25">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O25">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P25">
-        <v>214.3446118466729</v>
+        <v>67.03236934141934</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.952766801651598</v>
+        <v>0.9234239812334414</v>
       </c>
       <c r="C26">
-        <v>75.2592647623176</v>
+        <v>23.5359628984751</v>
       </c>
       <c r="D26">
-        <v>0.01246357471457795</v>
+        <v>0.003897755751283338</v>
       </c>
       <c r="E26">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="F26">
-        <v>3.276878956400616</v>
+        <v>1.024784148293395</v>
       </c>
       <c r="G26">
-        <v>22.14375887409274</v>
+        <v>6.925056854320723</v>
       </c>
       <c r="H26">
-        <v>0.4573827483220674</v>
+        <v>0.1430381153590644</v>
       </c>
       <c r="I26">
-        <v>12.89083084615258</v>
+        <v>4.031372316534736</v>
       </c>
       <c r="J26">
-        <v>5.293454127486736</v>
+        <v>1.655431266074344</v>
       </c>
       <c r="K26">
-        <v>26.65978386739531</v>
+        <v>8.337361333066767</v>
       </c>
       <c r="L26">
-        <v>8.478710179066701</v>
+        <v>2.651562021389215</v>
       </c>
       <c r="M26">
-        <v>51.64214634836342</v>
+        <v>16.15013971092206</v>
       </c>
       <c r="N26">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O26">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P26">
-        <v>218.5671223336597</v>
+        <v>68.35288250978483</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>3.183868357470207</v>
+        <v>0.9956967792830189</v>
       </c>
       <c r="C27">
-        <v>81.1495142620776</v>
+        <v>25.37803103622451</v>
       </c>
       <c r="D27">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E27">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F27">
-        <v>5.218733152786165</v>
+        <v>1.632063643578369</v>
       </c>
       <c r="G27">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="H27">
-        <v>0.663942699177195</v>
+        <v>0.2076359739083193</v>
       </c>
       <c r="I27">
-        <v>18.71249638957633</v>
+        <v>5.851992072389135</v>
       </c>
       <c r="J27">
-        <v>5.112481336803427</v>
+        <v>1.598835325353853</v>
       </c>
       <c r="K27">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="L27">
-        <v>6.602889342989998</v>
+        <v>2.064933255595141</v>
       </c>
       <c r="M27">
-        <v>40.21689273146885</v>
+        <v>12.5770999518685</v>
       </c>
       <c r="N27">
-        <v>0.2121755847517159</v>
+        <v>0.06635404566401006</v>
       </c>
       <c r="O27">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="P27">
-        <v>230.337832159248</v>
+        <v>72.03395739961648</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>3.270975866971067</v>
+        <v>1.022938064701706</v>
       </c>
       <c r="C28">
-        <v>83.36968522737172</v>
+        <v>26.07234902660696</v>
       </c>
       <c r="D28">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E28">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F28">
-        <v>5.400781983697311</v>
+        <v>1.688996096261335</v>
       </c>
       <c r="G28">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="H28">
-        <v>0.5311541593417558</v>
+        <v>0.1661087791266554</v>
       </c>
       <c r="I28">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="J28">
-        <v>4.99937334262636</v>
+        <v>1.563462862403547</v>
       </c>
       <c r="K28">
-        <v>25.17868476365113</v>
+        <v>7.874174592340836</v>
       </c>
       <c r="L28">
-        <v>7.803414678079085</v>
+        <v>2.440375665703349</v>
       </c>
       <c r="M28">
-        <v>47.52905504628138</v>
+        <v>14.86384539766278</v>
       </c>
       <c r="N28">
-        <v>0.2121755847517159</v>
+        <v>0.06635404566401006</v>
       </c>
       <c r="O28">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="P28">
-        <v>237.384151748507</v>
+        <v>74.23756537994099</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>3.775843881220947</v>
+        <v>1.180826331210013</v>
       </c>
       <c r="C29">
-        <v>96.23761490377042</v>
+        <v>30.09655941984413</v>
       </c>
       <c r="D29">
-        <v>0.01142494348836312</v>
+        <v>0.003572942772009727</v>
       </c>
       <c r="E29">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="F29">
-        <v>4.065757223682246</v>
+        <v>1.271491443252915</v>
       </c>
       <c r="G29">
-        <v>27.47466378822618</v>
+        <v>8.592200171101636</v>
       </c>
       <c r="H29">
-        <v>0.7229598279929453</v>
+        <v>0.2260925049223921</v>
       </c>
       <c r="I29">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="J29">
-        <v>4.682670958930574</v>
+        <v>1.464419966142689</v>
       </c>
       <c r="K29">
-        <v>23.58365495961893</v>
+        <v>7.375358102328293</v>
       </c>
       <c r="L29">
-        <v>5.327331174457837</v>
+        <v>1.666025694855171</v>
       </c>
       <c r="M29">
-        <v>32.44772027198056</v>
+        <v>10.14743291571209</v>
       </c>
       <c r="N29">
-        <v>0.2687557406855068</v>
+        <v>0.08404845784107938</v>
       </c>
       <c r="O29">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="P29">
-        <v>227.354088792272</v>
+        <v>71.10084606235449</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>4.513591155564964</v>
+        <v>1.411543340368277</v>
       </c>
       <c r="C30">
-        <v>115.0411036914656</v>
+        <v>35.97700770573648</v>
       </c>
       <c r="D30">
-        <v>0.009693891444671737</v>
+        <v>0.003031587806553708</v>
       </c>
       <c r="E30">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="F30">
-        <v>4.187123110956344</v>
+        <v>1.309446411708227</v>
       </c>
       <c r="G30">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="H30">
-        <v>1.018045472071699</v>
+        <v>0.3183751599927563</v>
       </c>
       <c r="I30">
-        <v>28.69249446401702</v>
+        <v>8.97305451099667</v>
       </c>
       <c r="J30">
-        <v>4.049266191538998</v>
+        <v>1.266334173620973</v>
       </c>
       <c r="K30">
-        <v>20.39359535155453</v>
+        <v>6.377725122303209</v>
       </c>
       <c r="L30">
-        <v>3.226411838051929</v>
+        <v>1.009001477165807</v>
       </c>
       <c r="M30">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="N30">
-        <v>0.1697404678013728</v>
+        <v>0.05308323653120803</v>
       </c>
       <c r="O30">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="P30">
-        <v>235.4361947927168</v>
+        <v>73.6283773579201</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>4.716249442975131</v>
+        <v>1.474921024811753</v>
       </c>
       <c r="C31">
-        <v>120.2063994066397</v>
+        <v>37.59235976499366</v>
       </c>
       <c r="D31">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E31">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F31">
-        <v>3.458927787311763</v>
+        <v>1.08171660097636</v>
       </c>
       <c r="G31">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="H31">
-        <v>1.180342576315013</v>
+        <v>0.3691306202814564</v>
       </c>
       <c r="I31">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="J31">
-        <v>2.918186249768328</v>
+        <v>0.9126095441179073</v>
       </c>
       <c r="K31">
-        <v>14.69706033715383</v>
+        <v>4.596237657972704</v>
       </c>
       <c r="L31">
-        <v>1.500656668861363</v>
+        <v>0.4693030126352593</v>
       </c>
       <c r="M31">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="N31">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O31">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P31">
-        <v>219.2034559848903</v>
+        <v>68.55188425732662</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.553630846779979</v>
+        <v>1.111333256162342</v>
       </c>
       <c r="C32">
-        <v>90.57391346169351</v>
+        <v>28.32534005662356</v>
       </c>
       <c r="D32">
-        <v>0.006231787357288973</v>
+        <v>0.001948877875641669</v>
       </c>
       <c r="E32">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="F32">
-        <v>2.366634801844889</v>
+        <v>0.7401218848785625</v>
       </c>
       <c r="G32">
-        <v>15.99271474240032</v>
+        <v>5.001429950342744</v>
       </c>
       <c r="H32">
-        <v>0.8262398034205093</v>
+        <v>0.2583914341970195</v>
       </c>
       <c r="I32">
-        <v>23.28666217369498</v>
+        <v>7.282479023417587</v>
       </c>
       <c r="J32">
-        <v>1.696619912656005</v>
+        <v>0.5305869442545972</v>
       </c>
       <c r="K32">
-        <v>8.544802521601063</v>
+        <v>2.672231196495759</v>
       </c>
       <c r="L32">
-        <v>1.950853669519771</v>
+        <v>0.6100939164258372</v>
       </c>
       <c r="M32">
-        <v>11.88226376157034</v>
+        <v>3.715961349415695</v>
       </c>
       <c r="N32">
-        <v>0.07072519491723864</v>
+        <v>0.02211801522133669</v>
       </c>
       <c r="O32">
-        <v>1.117748541109101</v>
+        <v>0.3495554770093975</v>
       </c>
       <c r="P32">
-        <v>164.1230869967576</v>
+        <v>51.32650310281788</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.766107852721184</v>
+        <v>0.8650497981933991</v>
       </c>
       <c r="C33">
-        <v>70.50175555097302</v>
+        <v>22.04813863336981</v>
       </c>
       <c r="D33">
-        <v>0.01107873307962484</v>
+        <v>0.003464671778918522</v>
       </c>
       <c r="E33">
-        <v>4.007192494564602</v>
+        <v>1.253176391996099</v>
       </c>
       <c r="F33">
-        <v>2.488000689118987</v>
+        <v>0.7780768533338732</v>
       </c>
       <c r="G33">
-        <v>16.81285395995931</v>
+        <v>5.257913537539809</v>
       </c>
       <c r="H33">
-        <v>1.077062600887449</v>
+        <v>0.336831691006829</v>
       </c>
       <c r="I33">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="J33">
-        <v>1.470403924301871</v>
+        <v>0.4598420183539844</v>
       </c>
       <c r="K33">
-        <v>7.405495518720919</v>
+        <v>2.315933703629657</v>
       </c>
       <c r="L33">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M33">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N33">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O33">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P33">
-        <v>145.5895077141494</v>
+        <v>45.53046409354733</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>2.225685752960748</v>
+        <v>0.6960426396774652</v>
       </c>
       <c r="C34">
-        <v>56.72763364384203</v>
+        <v>17.74053314201737</v>
       </c>
       <c r="D34">
-        <v>0.007616628992242076</v>
+        <v>0.002381961848006485</v>
       </c>
       <c r="E34">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="F34">
-        <v>2.002537140022598</v>
+        <v>0.6262569795126296</v>
       </c>
       <c r="G34">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="H34">
-        <v>0.6934512635850703</v>
+        <v>0.2168642394153557</v>
       </c>
       <c r="I34">
-        <v>19.54416289577972</v>
+        <v>6.112080608939763</v>
       </c>
       <c r="J34">
-        <v>0.8369991569102955</v>
+        <v>0.261756225832268</v>
       </c>
       <c r="K34">
-        <v>4.215435910656525</v>
+        <v>1.318300723604575</v>
       </c>
       <c r="L34">
-        <v>1.050459668202955</v>
+        <v>0.3285121088446816</v>
       </c>
       <c r="M34">
-        <v>6.398142025460952</v>
+        <v>2.000902265069989</v>
       </c>
       <c r="N34">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O34">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P34">
-        <v>110.4647555105602</v>
+        <v>34.54583824990326</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.583934509495228</v>
+        <v>0.4953466389397932</v>
       </c>
       <c r="C35">
-        <v>40.37086387912404</v>
+        <v>12.62525162103632</v>
       </c>
       <c r="D35">
-        <v>0.01038631226214829</v>
+        <v>0.003248129792736114</v>
       </c>
       <c r="E35">
-        <v>3.756742963654315</v>
+        <v>1.174852867496343</v>
       </c>
       <c r="F35">
-        <v>1.517073590926212</v>
+        <v>0.4744371056913862</v>
       </c>
       <c r="G35">
-        <v>10.25174021948738</v>
+        <v>3.206044839963298</v>
       </c>
       <c r="H35">
-        <v>0.4131199017102546</v>
+        <v>0.1291957170985097</v>
       </c>
       <c r="I35">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="J35">
-        <v>0.7238911627332288</v>
+        <v>0.2263837628819615</v>
       </c>
       <c r="K35">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="L35">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M35">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N35">
-        <v>0.04243511695034319</v>
+        <v>0.01327080913280201</v>
       </c>
       <c r="O35">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="P35">
-        <v>82.61059494885532</v>
+        <v>25.83495738202767</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.9457386745807653</v>
+        <v>0.2957625274028845</v>
       </c>
       <c r="C36">
-        <v>24.10471333747921</v>
+        <v>7.5383096098668</v>
       </c>
       <c r="D36">
-        <v>0.01350220594079277</v>
+        <v>0.004222568730556949</v>
       </c>
       <c r="E36">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="F36">
-        <v>0.5461464927334363</v>
+        <v>0.170797358048899</v>
       </c>
       <c r="G36">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="H36">
-        <v>0.2508227974669404</v>
+        <v>0.07844025680980952</v>
       </c>
       <c r="I36">
-        <v>7.069165302728834</v>
+        <v>2.210752560680339</v>
       </c>
       <c r="J36">
-        <v>0.678647965062402</v>
+        <v>0.2122347777018389</v>
       </c>
       <c r="K36">
-        <v>3.417921008640425</v>
+        <v>1.068892478598303</v>
       </c>
       <c r="L36">
-        <v>0.8253611678737498</v>
+        <v>0.2581166569493927</v>
       </c>
       <c r="M36">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="N36">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O36">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P36">
-        <v>51.69121762291149</v>
+        <v>16.16548585735057</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.7573020213748232</v>
+        <v>0.2368323997624601</v>
       </c>
       <c r="C37">
-        <v>19.30189451459803</v>
+        <v>6.036315589855744</v>
       </c>
       <c r="D37">
-        <v>0.01004010185341001</v>
+        <v>0.003139858799644911</v>
       </c>
       <c r="E37">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="F37">
-        <v>0.4854635490963876</v>
+        <v>0.1518198738212436</v>
       </c>
       <c r="G37">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="H37">
-        <v>0.1622971042433143</v>
+        <v>0.05075546028870026</v>
       </c>
       <c r="I37">
-        <v>4.574165784118656</v>
+        <v>1.430486951028455</v>
       </c>
       <c r="J37">
-        <v>0.6334047673915751</v>
+        <v>0.1980857925217163</v>
       </c>
       <c r="K37">
-        <v>3.190059608064396</v>
+        <v>0.9976329800250833</v>
       </c>
       <c r="L37">
-        <v>0.9754268347598856</v>
+        <v>0.3050469582129186</v>
       </c>
       <c r="M37">
-        <v>5.941131880785172</v>
+        <v>1.857980674707848</v>
       </c>
       <c r="N37">
-        <v>0.07072519491723864</v>
+        <v>0.02211801522133669</v>
       </c>
       <c r="O37">
-        <v>1.117748541109101</v>
+        <v>0.3495554770093975</v>
       </c>
       <c r="P37">
-        <v>44.13173497074712</v>
+        <v>13.80139548528927</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3982057577182168</v>
+        <v>0.124531590485425</v>
       </c>
       <c r="C38">
-        <v>10.14935298420177</v>
+        <v>3.174025098891284</v>
       </c>
       <c r="D38">
-        <v>0.0117711538971014</v>
+        <v>0.003681213765100929</v>
       </c>
       <c r="E38">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="F38">
-        <v>0.3640976618222908</v>
+        <v>0.1138649053659327</v>
       </c>
       <c r="G38">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H38">
-        <v>0.02950856440787534</v>
+        <v>0.009228265507036416</v>
       </c>
       <c r="I38">
-        <v>0.8316665062033922</v>
+        <v>0.2600885365506281</v>
       </c>
       <c r="J38">
-        <v>0.5881615697207484</v>
+        <v>0.1839368073415938</v>
       </c>
       <c r="K38">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="L38">
-        <v>1.6507223357475</v>
+        <v>0.5162333138987854</v>
       </c>
       <c r="M38">
-        <v>10.05422318286721</v>
+        <v>3.144274987967126</v>
       </c>
       <c r="N38">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O38">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P38">
-        <v>33.9956623494316</v>
+        <v>10.63152357775797</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2631002327781075</v>
+        <v>0.08227980085644149</v>
       </c>
       <c r="C39">
-        <v>6.705822507419031</v>
+        <v>2.09712372605317</v>
       </c>
       <c r="D39">
-        <v>0.00657799776602725</v>
+        <v>0.002057148868732873</v>
       </c>
       <c r="E39">
-        <v>2.379270543647732</v>
+        <v>0.7440734827476839</v>
       </c>
       <c r="F39">
-        <v>0.3640976618222908</v>
+        <v>0.1138649053659327</v>
       </c>
       <c r="G39">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="H39">
-        <v>0.02950856440787534</v>
+        <v>0.009228265507036416</v>
       </c>
       <c r="I39">
-        <v>0.8316665062033922</v>
+        <v>0.2600885365506281</v>
       </c>
       <c r="J39">
-        <v>0.3619455813666144</v>
+        <v>0.1131918814409807</v>
       </c>
       <c r="K39">
-        <v>1.822891204608227</v>
+        <v>0.5700759885857618</v>
       </c>
       <c r="L39">
-        <v>1.125492501646022</v>
+        <v>0.3519772594764444</v>
       </c>
       <c r="M39">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="N39">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O39">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P39">
-        <v>23.4436378716843</v>
+        <v>7.331570310922283</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2631002327781075</v>
+        <v>0.08227980085644149</v>
       </c>
       <c r="C40">
-        <v>6.705822507419031</v>
+        <v>2.09712372605317</v>
       </c>
       <c r="D40">
-        <v>0.004154524904859316</v>
+        <v>0.001299251917094446</v>
       </c>
       <c r="E40">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="F40">
-        <v>0.4247806054593392</v>
+        <v>0.1328423895935882</v>
       </c>
       <c r="G40">
-        <v>2.870487261456466</v>
+        <v>0.8976925551897235</v>
       </c>
       <c r="H40">
-        <v>0.08852569322362597</v>
+        <v>0.02768479652110923</v>
       </c>
       <c r="I40">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="J40">
-        <v>0.6107831685561618</v>
+        <v>0.191011299931655</v>
       </c>
       <c r="K40">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="L40">
-        <v>1.800788002633635</v>
+        <v>0.5631636151623115</v>
       </c>
       <c r="M40">
-        <v>10.96824347221878</v>
+        <v>3.430118168691411</v>
       </c>
       <c r="N40">
-        <v>0.01414503898344772</v>
+        <v>0.004423603044267335</v>
       </c>
       <c r="O40">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="P40">
-        <v>31.04820582770357</v>
+        <v>9.709760289751546</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,49 +2418,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.6061971579549641</v>
+        <v>0.1895771087300444</v>
       </c>
       <c r="C41">
-        <v>15.45057753398573</v>
+        <v>4.831886422865749</v>
       </c>
       <c r="D41">
-        <v>0.003462104087382763</v>
+        <v>0.001082709930912038</v>
       </c>
       <c r="E41">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="F41">
-        <v>1.031610041829824</v>
+        <v>0.3226172318701427</v>
       </c>
       <c r="G41">
-        <v>6.971183349251419</v>
+        <v>2.180110491175042</v>
       </c>
       <c r="H41">
-        <v>0.08852569322362597</v>
+        <v>0.02768479652110923</v>
       </c>
       <c r="I41">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="J41">
-        <v>0.9501071510873629</v>
+        <v>0.2971286887825745</v>
       </c>
       <c r="K41">
-        <v>4.785089412096595</v>
+        <v>1.496449470037624</v>
       </c>
       <c r="L41">
-        <v>3.451510338381136</v>
+        <v>1.079396929061096</v>
       </c>
       <c r="M41">
-        <v>21.022466655086</v>
+        <v>6.574393156658537</v>
       </c>
       <c r="N41">
-        <v>0.02829007796689545</v>
+        <v>0.008847206088534671</v>
       </c>
       <c r="O41">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="P41">
-        <v>58.5833661045562</v>
+        <v>18.32087963467579</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2468,49 +2468,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.287057895482093</v>
+        <v>0.402503890676106</v>
       </c>
       <c r="C42">
-        <v>32.80415875250931</v>
+        <v>10.25890255177361</v>
       </c>
       <c r="D42">
-        <v>0.001038631226214829</v>
+        <v>0.0003248129792736115</v>
       </c>
       <c r="E42">
-        <v>0.3756742963654314</v>
+        <v>0.1174852867496343</v>
       </c>
       <c r="F42">
-        <v>1.395707703652114</v>
+        <v>0.4364821372360753</v>
       </c>
       <c r="G42">
-        <v>9.431601001928392</v>
+        <v>2.949561252766232</v>
       </c>
       <c r="H42">
-        <v>0.5901712881575065</v>
+        <v>0.1845653101407282</v>
       </c>
       <c r="I42">
-        <v>16.63333012406785</v>
+        <v>5.201770731012563</v>
       </c>
       <c r="J42">
-        <v>1.900214302174726</v>
+        <v>0.594257377565149</v>
       </c>
       <c r="K42">
-        <v>9.57017882419319</v>
+        <v>2.992898940075249</v>
       </c>
       <c r="L42">
-        <v>3.826674505596475</v>
+        <v>1.196722682219912</v>
       </c>
       <c r="M42">
-        <v>23.30751737846491</v>
+        <v>7.289001108469245</v>
       </c>
       <c r="N42">
-        <v>0.0565801559337909</v>
+        <v>0.01769441217706934</v>
       </c>
       <c r="O42">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="P42">
-        <v>102.0741036926393</v>
+        <v>31.92181487544837</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2518,49 +2518,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>2.383901433482717</v>
+        <v>0.7455217091114057</v>
       </c>
       <c r="C43">
-        <v>60.76018907060081</v>
+        <v>19.00164132863043</v>
       </c>
       <c r="D43">
-        <v>0.004846945722335868</v>
+        <v>0.001515793903276854</v>
       </c>
       <c r="E43">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="F43">
-        <v>3.398244843674714</v>
+        <v>1.062739116748705</v>
       </c>
       <c r="G43">
-        <v>22.96389809165173</v>
+        <v>7.181540441517788</v>
       </c>
       <c r="H43">
-        <v>1.416411091578015</v>
+        <v>0.4429567443377477</v>
       </c>
       <c r="I43">
-        <v>39.91999229776283</v>
+        <v>12.48424975443015</v>
       </c>
       <c r="J43">
-        <v>4.117130988045239</v>
+        <v>1.287557651391156</v>
       </c>
       <c r="K43">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="L43">
-        <v>5.327331174457837</v>
+        <v>1.666025694855171</v>
       </c>
       <c r="M43">
-        <v>32.44772027198056</v>
+        <v>10.14743291571209</v>
       </c>
       <c r="N43">
-        <v>0.1980305457682682</v>
+        <v>0.06193044261974273</v>
       </c>
       <c r="O43">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="P43">
-        <v>198.5559268386211</v>
+        <v>62.09474597054531</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2568,49 +2568,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>4.031833296896945</v>
+        <v>1.260882353664929</v>
       </c>
       <c r="C44">
-        <v>102.762198965043</v>
+        <v>32.13700412627425</v>
       </c>
       <c r="D44">
-        <v>0.004154524904859316</v>
+        <v>0.001299251917094446</v>
       </c>
       <c r="E44">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="F44">
-        <v>3.94439133640815</v>
+        <v>1.233536474797605</v>
       </c>
       <c r="G44">
-        <v>26.65452457066718</v>
+        <v>8.335716583904572</v>
       </c>
       <c r="H44">
-        <v>1.652479606841019</v>
+        <v>0.516782868394039</v>
       </c>
       <c r="I44">
-        <v>46.57332434738996</v>
+        <v>14.56495804683517</v>
       </c>
       <c r="J44">
-        <v>4.388590174070199</v>
+        <v>1.372451562471892</v>
       </c>
       <c r="K44">
-        <v>22.10255585587474</v>
+        <v>6.912171361602361</v>
       </c>
       <c r="L44">
-        <v>7.35321767742068</v>
+        <v>2.299584761912771</v>
       </c>
       <c r="M44">
-        <v>44.78699417822669</v>
+        <v>14.00631585548992</v>
       </c>
       <c r="N44">
-        <v>0.2970458186524022</v>
+        <v>0.09289566392961407</v>
       </c>
       <c r="O44">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="P44">
-        <v>270.7485514105158</v>
+        <v>84.67167306163225</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2618,49 +2618,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>4.559811466728688</v>
+        <v>1.425997899978192</v>
       </c>
       <c r="C45">
-        <v>116.2191535914177</v>
+        <v>36.34542133328636</v>
       </c>
       <c r="D45">
-        <v>0.01211736430583967</v>
+        <v>0.003789484758192134</v>
       </c>
       <c r="E45">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="F45">
-        <v>4.793952547326828</v>
+        <v>1.499221253984781</v>
       </c>
       <c r="G45">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="H45">
-        <v>1.180342576315013</v>
+        <v>0.3691306202814564</v>
       </c>
       <c r="I45">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="J45">
-        <v>4.954130144955537</v>
+        <v>1.549313877223424</v>
       </c>
       <c r="K45">
-        <v>24.95082336307511</v>
+        <v>7.802915093767615</v>
       </c>
       <c r="L45">
-        <v>8.028513178408295</v>
+        <v>2.510771117598639</v>
       </c>
       <c r="M45">
-        <v>48.90008548030875</v>
+        <v>15.29261016874921</v>
       </c>
       <c r="N45">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O45">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P45">
-        <v>287.6847665479771</v>
+        <v>89.96816555826724</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2668,49 +2668,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>3.651404581934006</v>
+        <v>1.141910209183317</v>
       </c>
       <c r="C46">
-        <v>93.06594209620739</v>
+        <v>29.10467657644061</v>
       </c>
       <c r="D46">
-        <v>0.01488704757574588</v>
+        <v>0.004655652702921764</v>
       </c>
       <c r="E46">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="F46">
-        <v>5.582830814608457</v>
+        <v>1.745928548944301</v>
       </c>
       <c r="G46">
-        <v>37.72640400771357</v>
+        <v>11.79824501106493</v>
       </c>
       <c r="H46">
-        <v>0.8262398034205093</v>
+        <v>0.2583914341970195</v>
       </c>
       <c r="I46">
-        <v>23.28666217369498</v>
+        <v>7.282479023417587</v>
       </c>
       <c r="J46">
-        <v>5.994723691384551</v>
+        <v>1.874740536366243</v>
       </c>
       <c r="K46">
-        <v>30.19163557632375</v>
+        <v>9.441883560951677</v>
       </c>
       <c r="L46">
-        <v>12.2303518512201</v>
+        <v>3.824819552977363</v>
       </c>
       <c r="M46">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="N46">
-        <v>0.2404656627186113</v>
+        <v>0.07520125175254472</v>
       </c>
       <c r="O46">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="P46">
-        <v>296.4892108432964</v>
+        <v>92.72159498560438</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2718,49 +2718,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.757219331343546</v>
+        <v>0.8622700751914922</v>
       </c>
       <c r="C47">
-        <v>70.27520749328995</v>
+        <v>21.97728985884099</v>
       </c>
       <c r="D47">
-        <v>0.01661809961943726</v>
+        <v>0.005197007668377784</v>
       </c>
       <c r="E47">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="F47">
-        <v>4.126440167319296</v>
+        <v>1.290468927480571</v>
       </c>
       <c r="G47">
-        <v>27.88473339700568</v>
+        <v>8.72044196470017</v>
       </c>
       <c r="H47">
-        <v>0.5459084415456935</v>
+        <v>0.1707229118801736</v>
       </c>
       <c r="I47">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="J47">
-        <v>6.401912470421993</v>
+        <v>2.002081402987347</v>
       </c>
       <c r="K47">
-        <v>32.24238818150801</v>
+        <v>10.08321904811066</v>
       </c>
       <c r="L47">
-        <v>9.304071346940454</v>
+        <v>2.909678678338608</v>
       </c>
       <c r="M47">
-        <v>56.66925793979704</v>
+        <v>17.72227720490562</v>
       </c>
       <c r="N47">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O47">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P47">
-        <v>234.7104076890693</v>
+        <v>73.40140067408468</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2768,49 +2768,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.844326840844406</v>
+        <v>0.8895113606101785</v>
       </c>
       <c r="C48">
-        <v>72.49537845858416</v>
+        <v>22.67160784922345</v>
       </c>
       <c r="D48">
-        <v>0.01004010185341001</v>
+        <v>0.003139858799644911</v>
       </c>
       <c r="E48">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="F48">
-        <v>4.490537829141585</v>
+        <v>1.404333832846503</v>
       </c>
       <c r="G48">
-        <v>30.34515104968265</v>
+        <v>9.489892726291357</v>
       </c>
       <c r="H48">
-        <v>0.6049255703614443</v>
+        <v>0.1891794428942465</v>
       </c>
       <c r="I48">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="J48">
-        <v>6.537642063434471</v>
+        <v>2.044528358527715</v>
       </c>
       <c r="K48">
-        <v>32.92597238323609</v>
+        <v>10.29699754383032</v>
       </c>
       <c r="L48">
-        <v>13.35584435286613</v>
+        <v>4.176796812453808</v>
       </c>
       <c r="M48">
-        <v>81.34780575228928</v>
+        <v>25.44004308446129</v>
       </c>
       <c r="N48">
-        <v>0.1555954288179251</v>
+        <v>0.04865963348694069</v>
       </c>
       <c r="O48">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="P48">
-        <v>268.2529481969203</v>
+        <v>83.89121865738048</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2818,49 +2818,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.934989758896323</v>
+        <v>0.9178645352296283</v>
       </c>
       <c r="C49">
-        <v>74.80616864695149</v>
+        <v>23.39426534941746</v>
       </c>
       <c r="D49">
-        <v>0.01419462675826933</v>
+        <v>0.004439110716739357</v>
       </c>
       <c r="E49">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="F49">
-        <v>3.458927787311763</v>
+        <v>1.08171660097636</v>
       </c>
       <c r="G49">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="H49">
-        <v>0.6491884169732571</v>
+        <v>0.203021841154801</v>
       </c>
       <c r="I49">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="J49">
-        <v>4.162374185716066</v>
+        <v>1.301706636571279</v>
       </c>
       <c r="K49">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="L49">
-        <v>8.103546011851359</v>
+        <v>2.534236268230401</v>
       </c>
       <c r="M49">
-        <v>49.35709562498452</v>
+        <v>15.43553175911135</v>
       </c>
       <c r="N49">
-        <v>0.1838855067848205</v>
+        <v>0.0575068395754754</v>
       </c>
       <c r="O49">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="P49">
-        <v>214.3446118466729</v>
+        <v>67.03236934141934</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.9784624966711969</v>
+        <v>3.128759524928847</v>
       </c>
       <c r="C2">
-        <v>24.93876863414581</v>
+        <v>79.74491630444248</v>
       </c>
       <c r="D2">
-        <v>0.005197007668377784</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E2">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F2">
-        <v>1.328423895935881</v>
+        <v>4.247806054593393</v>
       </c>
       <c r="G2">
-        <v>8.976925551897232</v>
+        <v>28.70487261456467</v>
       </c>
       <c r="H2">
-        <v>0.1430381153590644</v>
+        <v>0.4573827483220674</v>
       </c>
       <c r="I2">
-        <v>4.031372316534736</v>
+        <v>12.89083084615258</v>
       </c>
       <c r="J2">
-        <v>1.63420778830416</v>
+        <v>5.225589330980495</v>
       </c>
       <c r="K2">
-        <v>8.230472085206936</v>
+        <v>26.31799176653127</v>
       </c>
       <c r="L2">
-        <v>2.276119611281009</v>
+        <v>7.27818484397761</v>
       </c>
       <c r="M2">
-        <v>13.86339426512779</v>
+        <v>44.32998403355089</v>
       </c>
       <c r="N2">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O2">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P2">
-        <v>69.54983622971083</v>
+        <v>222.3945356120002</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.9673436046635703</v>
+        <v>3.09320543941829</v>
       </c>
       <c r="C3">
-        <v>24.6553735360305</v>
+        <v>78.83872407371024</v>
       </c>
       <c r="D3">
-        <v>0.005521820647651395</v>
+        <v>0.01765673084565209</v>
       </c>
       <c r="E3">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="F3">
-        <v>1.518198738212436</v>
+        <v>4.854635490963878</v>
       </c>
       <c r="G3">
-        <v>10.25934348788256</v>
+        <v>32.80556870235962</v>
       </c>
       <c r="H3">
-        <v>0.1384239826055462</v>
+        <v>0.4426284661181299</v>
       </c>
       <c r="I3">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="J3">
-        <v>1.648356773484283</v>
+        <v>5.270832528651322</v>
       </c>
       <c r="K3">
-        <v>8.301731583780155</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="L3">
-        <v>2.557701418862164</v>
+        <v>8.178578845294426</v>
       </c>
       <c r="M3">
-        <v>15.5784533494735</v>
+        <v>49.81410576966029</v>
       </c>
       <c r="N3">
-        <v>0.07962485479681204</v>
+        <v>0.2546107017020591</v>
       </c>
       <c r="O3">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="P3">
-        <v>72.86705079067619</v>
+        <v>233.0017552950872</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.093543028950138</v>
+        <v>3.496744309963092</v>
       </c>
       <c r="C4">
-        <v>27.87190789963909</v>
+        <v>89.12400589252188</v>
       </c>
       <c r="D4">
-        <v>0.0056300916407426</v>
+        <v>0.01800294125439037</v>
       </c>
       <c r="E4">
-        <v>2.036411636993661</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="F4">
-        <v>1.651041127806025</v>
+        <v>5.279416096423216</v>
       </c>
       <c r="G4">
-        <v>11.15703604307228</v>
+        <v>35.67605596381608</v>
       </c>
       <c r="H4">
-        <v>0.1614946463731372</v>
+        <v>0.5163998771378182</v>
       </c>
       <c r="I4">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="J4">
-        <v>1.945485462266856</v>
+        <v>6.220939679738685</v>
       </c>
       <c r="K4">
-        <v>9.798181053817778</v>
+        <v>31.33094257920389</v>
       </c>
       <c r="L4">
-        <v>1.947607502436326</v>
+        <v>6.227725175774655</v>
       </c>
       <c r="M4">
-        <v>11.8624920000578</v>
+        <v>37.93184200808994</v>
       </c>
       <c r="N4">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O4">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P4">
-        <v>74.82572686715129</v>
+        <v>239.2648736582032</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.180270386609631</v>
+        <v>3.77406617694542</v>
       </c>
       <c r="C5">
-        <v>30.08238966493839</v>
+        <v>96.19230529223373</v>
       </c>
       <c r="D5">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E5">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F5">
-        <v>1.688996096261335</v>
+        <v>5.400781983697311</v>
       </c>
       <c r="G5">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="H5">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I5">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J5">
-        <v>1.69080372902465</v>
+        <v>5.406562121663802</v>
       </c>
       <c r="K5">
-        <v>8.515510079499816</v>
+        <v>27.22943736883538</v>
       </c>
       <c r="L5">
-        <v>1.314048435378727</v>
+        <v>4.201838672811818</v>
       </c>
       <c r="M5">
-        <v>8.003609060279958</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="N5">
-        <v>0.03096522130987137</v>
+        <v>0.09901527288413411</v>
       </c>
       <c r="O5">
-        <v>0.4893776678131564</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="P5">
-        <v>70.68776190646966</v>
+        <v>226.0331991396598</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.433225179783151</v>
+        <v>4.58292162231055</v>
       </c>
       <c r="C6">
-        <v>36.52962814706128</v>
+        <v>116.8081785413937</v>
       </c>
       <c r="D6">
-        <v>0.005305278661468988</v>
+        <v>0.01696431002817554</v>
       </c>
       <c r="E6">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="F6">
-        <v>1.195581506342293</v>
+        <v>3.823025449134053</v>
       </c>
       <c r="G6">
-        <v>8.07923299670751</v>
+        <v>25.8343853531082</v>
       </c>
       <c r="H6">
-        <v>0.3183751599927563</v>
+        <v>1.018045472071699</v>
       </c>
       <c r="I6">
-        <v>8.97305451099667</v>
+        <v>28.69249446401702</v>
       </c>
       <c r="J6">
-        <v>1.209738232900482</v>
+        <v>3.868293400855691</v>
       </c>
       <c r="K6">
-        <v>6.092687128010329</v>
+        <v>19.48214974925042</v>
       </c>
       <c r="L6">
-        <v>0.727419669584652</v>
+        <v>2.326017836735113</v>
       </c>
       <c r="M6">
-        <v>4.430569301226404</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="N6">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O6">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P6">
-        <v>72.47477212888012</v>
+        <v>231.7473938824665</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.431001401381626</v>
+        <v>4.57581080520844</v>
       </c>
       <c r="C7">
-        <v>36.47294912743823</v>
+        <v>116.6269400952471</v>
       </c>
       <c r="D7">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E7">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F7">
-        <v>0.8539867902444953</v>
+        <v>2.73073246366718</v>
       </c>
       <c r="G7">
-        <v>5.770880711933936</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="H7">
-        <v>0.3506740892673836</v>
+        <v>1.121325447499262</v>
       </c>
       <c r="I7">
-        <v>9.883364388923869</v>
+        <v>31.6033272357289</v>
       </c>
       <c r="J7">
-        <v>0.6933002738260072</v>
+        <v>2.216916685870514</v>
       </c>
       <c r="K7">
-        <v>3.491715430087791</v>
+        <v>11.16520862822539</v>
       </c>
       <c r="L7">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M7">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N7">
-        <v>0.05308323653120803</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O7">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P7">
-        <v>63.39598060692585</v>
+        <v>202.7167917430949</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.9995883914856887</v>
+        <v>3.196312287398902</v>
       </c>
       <c r="C8">
-        <v>25.47721932056487</v>
+        <v>81.46668154283388</v>
       </c>
       <c r="D8">
-        <v>0.003031587806553708</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E8">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F8">
-        <v>0.7401218848785625</v>
+        <v>2.366634801844889</v>
       </c>
       <c r="G8">
-        <v>5.001429950342744</v>
+        <v>15.99271474240032</v>
       </c>
       <c r="H8">
-        <v>0.2260925049223921</v>
+        <v>0.7229598279929453</v>
       </c>
       <c r="I8">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="J8">
-        <v>0.5305869442545972</v>
+        <v>1.696619912656005</v>
       </c>
       <c r="K8">
-        <v>2.672231196495759</v>
+        <v>8.544802521601063</v>
       </c>
       <c r="L8">
-        <v>0.4223727113717335</v>
+        <v>1.350591001975226</v>
       </c>
       <c r="M8">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="N8">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O8">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P8">
-        <v>46.18829630557457</v>
+        <v>147.6930107162444</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.8161266733598389</v>
+        <v>2.609669876474743</v>
       </c>
       <c r="C9">
-        <v>20.80120020166252</v>
+        <v>66.51450973575092</v>
       </c>
       <c r="D9">
-        <v>0.002706774827280095</v>
+        <v>0.008655260218456909</v>
       </c>
       <c r="E9">
-        <v>0.9790440562469523</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="F9">
-        <v>0.5313695583743526</v>
+        <v>1.699122421837357</v>
       </c>
       <c r="G9">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="H9">
-        <v>0.336831691006829</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I9">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J9">
-        <v>0.3042031813726357</v>
+        <v>0.972728749922776</v>
       </c>
       <c r="K9">
-        <v>1.532079219324235</v>
+        <v>4.899020112384608</v>
       </c>
       <c r="L9">
-        <v>0.2346515063176297</v>
+        <v>0.7503283344306815</v>
       </c>
       <c r="M9">
-        <v>1.429215903621422</v>
+        <v>4.570101446757825</v>
       </c>
       <c r="N9">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O9">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P9">
-        <v>40.27443466630896</v>
+        <v>128.7826784389089</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.6037558360141589</v>
+        <v>1.93058684322314</v>
       </c>
       <c r="C10">
-        <v>15.38835382766042</v>
+        <v>49.20623812876398</v>
       </c>
       <c r="D10">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E10">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F10">
-        <v>0.41750465300842</v>
+        <v>1.335024760015066</v>
       </c>
       <c r="G10">
-        <v>2.821319459167702</v>
+        <v>9.021531393148898</v>
       </c>
       <c r="H10">
-        <v>0.2214783721688738</v>
+        <v>0.7082055457890077</v>
       </c>
       <c r="I10">
-        <v>6.242124877215074</v>
+        <v>19.95999614888142</v>
       </c>
       <c r="J10">
-        <v>0.2759052110123907</v>
+        <v>0.8822423545811225</v>
       </c>
       <c r="K10">
-        <v>1.389560222177795</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="L10">
-        <v>0.2346515063176297</v>
+        <v>0.7503283344306815</v>
       </c>
       <c r="M10">
-        <v>1.429215903621422</v>
+        <v>4.570101446757825</v>
       </c>
       <c r="N10">
-        <v>0.01769441217706934</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O10">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P10">
-        <v>30.02806926052192</v>
+        <v>96.01860882119466</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4631018521176742</v>
+        <v>1.480827661514619</v>
       </c>
       <c r="C11">
-        <v>11.80340583650197</v>
+        <v>37.74290641000036</v>
       </c>
       <c r="D11">
-        <v>0.003139858799644911</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E11">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F11">
-        <v>0.41750465300842</v>
+        <v>1.335024760015066</v>
       </c>
       <c r="G11">
-        <v>2.821319459167702</v>
+        <v>9.021531393148898</v>
       </c>
       <c r="H11">
-        <v>0.1015109205774005</v>
+        <v>0.3245942084866286</v>
       </c>
       <c r="I11">
-        <v>2.86097390205691</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="J11">
-        <v>0.2829797036024519</v>
+        <v>0.9048639534165358</v>
       </c>
       <c r="K11">
-        <v>1.425189971464405</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="L11">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M11">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N11">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O11">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P11">
-        <v>24.03362247279005</v>
+        <v>76.85059517979113</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2851995799956386</v>
+        <v>0.9119622933457374</v>
       </c>
       <c r="C12">
-        <v>7.269084266657271</v>
+        <v>23.24383071828354</v>
       </c>
       <c r="D12">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E12">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F12">
-        <v>0.09488742113827726</v>
+        <v>0.3034147181852423</v>
       </c>
       <c r="G12">
-        <v>0.6412089679926597</v>
+        <v>2.050348043897476</v>
       </c>
       <c r="H12">
-        <v>0.03691306202814566</v>
+        <v>0.1180342576315013</v>
       </c>
       <c r="I12">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="J12">
-        <v>0.1697878221614711</v>
+        <v>0.5429183720499215</v>
       </c>
       <c r="K12">
-        <v>0.8551139828786426</v>
+        <v>2.73433680691234</v>
       </c>
       <c r="L12">
-        <v>0.3754424101082076</v>
+        <v>1.20052533508909</v>
       </c>
       <c r="M12">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="P12">
-        <v>14.11502800251727</v>
+        <v>45.13461523334575</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1779022721220358</v>
+        <v>0.568865368168881</v>
       </c>
       <c r="C13">
-        <v>4.534321569844692</v>
+        <v>14.49907569171682</v>
       </c>
       <c r="D13">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E13">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F13">
-        <v>0.0759099369106218</v>
+        <v>0.2427317745481938</v>
       </c>
       <c r="G13">
-        <v>0.5129671743941278</v>
+        <v>1.640278435117981</v>
       </c>
       <c r="H13">
-        <v>0.01845653101407283</v>
+        <v>0.05901712881575067</v>
       </c>
       <c r="I13">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="J13">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K13">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L13">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M13">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N13">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O13">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P13">
-        <v>11.072317207813</v>
+        <v>35.40515660522023</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1117448646766537</v>
+        <v>0.3573185593810784</v>
       </c>
       <c r="C14">
-        <v>2.848120736058697</v>
+        <v>9.107231918859632</v>
       </c>
       <c r="D14">
-        <v>0.002923316813462504</v>
+        <v>0.009347681035933461</v>
       </c>
       <c r="E14">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="F14">
-        <v>0.0759099369106218</v>
+        <v>0.2427317745481938</v>
       </c>
       <c r="G14">
-        <v>0.5129671743941278</v>
+        <v>1.640278435117981</v>
       </c>
       <c r="H14">
-        <v>0.01384239826055461</v>
+        <v>0.04426284661181298</v>
       </c>
       <c r="I14">
-        <v>0.3901328048259421</v>
+        <v>1.247499759305088</v>
       </c>
       <c r="J14">
-        <v>0.191011299931655</v>
+        <v>0.6107831685561618</v>
       </c>
       <c r="K14">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="L14">
-        <v>0.7508848202164151</v>
+        <v>2.401050670178179</v>
       </c>
       <c r="M14">
-        <v>4.573490891588548</v>
+        <v>14.62432462962504</v>
       </c>
       <c r="N14">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O14">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P14">
-        <v>11.56473375360801</v>
+        <v>36.97972176548964</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,43 +1124,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.0828357454568229</v>
+        <v>0.2648779370536352</v>
       </c>
       <c r="C15">
-        <v>2.111293480958935</v>
+        <v>6.751132118955645</v>
       </c>
       <c r="D15">
-        <v>0.001840606882550465</v>
+        <v>0.005885576948550698</v>
       </c>
       <c r="E15">
-        <v>0.6657499582479277</v>
+        <v>2.128821012737445</v>
       </c>
       <c r="F15">
-        <v>0.05693245268296635</v>
+        <v>0.1820488309111454</v>
       </c>
       <c r="G15">
-        <v>0.3847253807955957</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="J15">
-        <v>0.1273408666211033</v>
+        <v>0.4071887790374412</v>
       </c>
       <c r="K15">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="L15">
-        <v>0.5866287657940744</v>
+        <v>1.875820836076704</v>
       </c>
       <c r="M15">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="N15">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O15">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P15">
-        <v>8.380391900544804</v>
+        <v>26.7973796345484</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,49 +1168,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.0872833022598738</v>
+        <v>0.2790995712578574</v>
       </c>
       <c r="C16">
-        <v>2.224651520205053</v>
+        <v>7.113609011248566</v>
       </c>
       <c r="D16">
-        <v>0.0009744389378208344</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E16">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F16">
-        <v>0.1897748422765545</v>
+        <v>0.6068294363704847</v>
       </c>
       <c r="G16">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="H16">
-        <v>0.02307066376759103</v>
+        <v>0.07377141101968832</v>
       </c>
       <c r="I16">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="J16">
-        <v>0.1485643443912872</v>
+        <v>0.4750535755436814</v>
       </c>
       <c r="K16">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="L16">
-        <v>0.6804893683211259</v>
+        <v>2.175952169848975</v>
       </c>
       <c r="M16">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="N16">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O16">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P16">
-        <v>10.60718917173718</v>
+        <v>33.91784996021888</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,49 +1218,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1995841115369089</v>
+        <v>0.6381958349144635</v>
       </c>
       <c r="C17">
-        <v>5.086942011169514</v>
+        <v>16.26615054164481</v>
       </c>
       <c r="D17">
-        <v>0.0009744389378208344</v>
+        <v>0.003115893678644487</v>
       </c>
       <c r="E17">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="F17">
-        <v>0.1897748422765545</v>
+        <v>0.6068294363704847</v>
       </c>
       <c r="G17">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="H17">
-        <v>0.01384239826055461</v>
+        <v>0.04426284661181298</v>
       </c>
       <c r="I17">
-        <v>0.3901328048259421</v>
+        <v>1.247499759305088</v>
       </c>
       <c r="J17">
-        <v>0.2688307184223293</v>
+        <v>0.8596207557457091</v>
       </c>
       <c r="K17">
-        <v>1.353930472891185</v>
+        <v>4.329366610944539</v>
       </c>
       <c r="L17">
-        <v>0.9151408746387559</v>
+        <v>2.926280504279659</v>
       </c>
       <c r="M17">
-        <v>5.573942024123544</v>
+        <v>17.82339564235552</v>
       </c>
       <c r="N17">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O17">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P17">
-        <v>15.77663789020962</v>
+        <v>50.44782629715251</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1268,49 +1268,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.4258535638921231</v>
+        <v>1.36172147505426</v>
       </c>
       <c r="C18">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="D18">
-        <v>0.001624064896368057</v>
+        <v>0.005193156131074145</v>
       </c>
       <c r="E18">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="F18">
-        <v>0.3985271687807646</v>
+        <v>1.274341816378017</v>
       </c>
       <c r="G18">
-        <v>2.693077665569171</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="H18">
-        <v>0.156880513619619</v>
+        <v>0.5016455949338807</v>
       </c>
       <c r="I18">
-        <v>4.421505121360679</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="J18">
-        <v>0.6225553479253941</v>
+        <v>1.990700697516379</v>
       </c>
       <c r="K18">
-        <v>3.135417937221689</v>
+        <v>10.02590162534525</v>
       </c>
       <c r="L18">
-        <v>1.196722682219912</v>
+        <v>3.826674505596475</v>
       </c>
       <c r="M18">
-        <v>7.289001108469245</v>
+        <v>23.30751737846491</v>
       </c>
       <c r="N18">
-        <v>0.02654161826560402</v>
+        <v>0.08487023390068639</v>
       </c>
       <c r="O18">
-        <v>0.419466572411277</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="P18">
-        <v>32.22863205619575</v>
+        <v>103.0551910413532</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,49 +1318,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.7427419861094992</v>
+        <v>2.375012912105078</v>
       </c>
       <c r="C19">
-        <v>18.93079255410158</v>
+        <v>60.53364101291772</v>
       </c>
       <c r="D19">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E19">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F19">
-        <v>1.04376163252105</v>
+        <v>3.337561900037665</v>
       </c>
       <c r="G19">
-        <v>7.053298647919255</v>
+        <v>22.55382848287225</v>
       </c>
       <c r="H19">
-        <v>0.4291143460771931</v>
+        <v>1.372148244966203</v>
       </c>
       <c r="I19">
-        <v>12.09411694960421</v>
+        <v>38.67249253845776</v>
       </c>
       <c r="J19">
-        <v>1.14606779958993</v>
+        <v>3.66469901133697</v>
       </c>
       <c r="K19">
-        <v>5.772019384430838</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="L19">
-        <v>1.689490845486934</v>
+        <v>5.402364007900904</v>
       </c>
       <c r="M19">
-        <v>10.29035450607423</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="N19">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O19">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P19">
-        <v>60.64196623474962</v>
+        <v>193.9104770115117</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.264773965867598</v>
+        <v>4.04427722682564</v>
       </c>
       <c r="C20">
-        <v>32.2361924106146</v>
+        <v>103.0793662457992</v>
       </c>
       <c r="D20">
-        <v>0.002165419861824076</v>
+        <v>0.006924208174765525</v>
       </c>
       <c r="E20">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="F20">
-        <v>1.290468927480571</v>
+        <v>4.126440167319296</v>
       </c>
       <c r="G20">
-        <v>8.72044196470017</v>
+        <v>27.88473339700568</v>
       </c>
       <c r="H20">
-        <v>0.4198860805701566</v>
+        <v>1.342639680558328</v>
       </c>
       <c r="I20">
-        <v>11.83402841305358</v>
+        <v>37.84082603225434</v>
       </c>
       <c r="J20">
-        <v>1.301706636571279</v>
+        <v>4.162374185716066</v>
       </c>
       <c r="K20">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="L20">
-        <v>2.323049912544534</v>
+        <v>7.428250510863745</v>
       </c>
       <c r="M20">
-        <v>14.14923744585207</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="N20">
-        <v>0.08847206088534676</v>
+        <v>0.2829007796689545</v>
       </c>
       <c r="O20">
-        <v>1.39822190803759</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="P20">
-        <v>82.36775425977314</v>
+        <v>263.3814750836224</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.333155151714505</v>
+        <v>4.262934852715556</v>
       </c>
       <c r="C21">
-        <v>33.97907226402366</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="D21">
-        <v>0.003248129792736114</v>
+        <v>0.01038631226214829</v>
       </c>
       <c r="E21">
-        <v>1.174852867496343</v>
+        <v>3.756742963654315</v>
       </c>
       <c r="F21">
-        <v>1.024784148293395</v>
+        <v>3.276878956400616</v>
       </c>
       <c r="G21">
-        <v>6.925056854320723</v>
+        <v>22.14375887409274</v>
       </c>
       <c r="H21">
-        <v>0.290690363471647</v>
+        <v>0.9295197788480727</v>
       </c>
       <c r="I21">
-        <v>8.192788901344789</v>
+        <v>26.19749494540685</v>
       </c>
       <c r="J21">
-        <v>1.124844321819747</v>
+        <v>3.59683421483073</v>
       </c>
       <c r="K21">
-        <v>5.665130136571007</v>
+        <v>18.11498134579425</v>
       </c>
       <c r="L21">
-        <v>1.9006772011728</v>
+        <v>6.077659508888519</v>
       </c>
       <c r="M21">
-        <v>11.57664881933351</v>
+        <v>37.01782171873838</v>
       </c>
       <c r="N21">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O21">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P21">
-        <v>74.23163493760093</v>
+        <v>237.3651883973089</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.072417134135647</v>
+        <v>3.429191547493037</v>
       </c>
       <c r="C22">
-        <v>27.33345721322004</v>
+        <v>87.40224065413048</v>
       </c>
       <c r="D22">
-        <v>0.004655652702921764</v>
+        <v>0.01488704757574588</v>
       </c>
       <c r="E22">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="F22">
-        <v>1.783883517399613</v>
+        <v>5.704196701882556</v>
       </c>
       <c r="G22">
-        <v>12.054728598262</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="H22">
-        <v>0.2260925049223921</v>
+        <v>0.7229598279929453</v>
       </c>
       <c r="I22">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="J22">
-        <v>1.888889521546367</v>
+        <v>6.039966889055377</v>
       </c>
       <c r="K22">
-        <v>9.5131430595249</v>
+        <v>30.41949697689978</v>
       </c>
       <c r="L22">
-        <v>3.355516540342105</v>
+        <v>10.72969518235875</v>
       </c>
       <c r="M22">
-        <v>20.43778742178632</v>
+        <v>65.35245068863688</v>
       </c>
       <c r="N22">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O22">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P22">
-        <v>86.99038595966195</v>
+        <v>278.162933760342</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.8422560695777631</v>
+        <v>2.693221977424546</v>
       </c>
       <c r="C23">
-        <v>21.46717868223347</v>
+        <v>68.6440614779718</v>
       </c>
       <c r="D23">
-        <v>0.004655652702921764</v>
+        <v>0.01488704757574588</v>
       </c>
       <c r="E23">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="F23">
-        <v>1.442288801301814</v>
+        <v>4.611903716415684</v>
       </c>
       <c r="G23">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="H23">
-        <v>0.1384239826055462</v>
+        <v>0.4426284661181299</v>
       </c>
       <c r="I23">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="J23">
-        <v>1.860591551186122</v>
+        <v>5.949480493713722</v>
       </c>
       <c r="K23">
-        <v>9.370624062378457</v>
+        <v>29.96377417574773</v>
       </c>
       <c r="L23">
-        <v>3.261655937815054</v>
+        <v>10.42956384858647</v>
       </c>
       <c r="M23">
-        <v>19.86610106033775</v>
+        <v>63.52441010993378</v>
       </c>
       <c r="N23">
-        <v>0.04423603044267338</v>
+        <v>0.1414503898344773</v>
       </c>
       <c r="O23">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="P23">
-        <v>74.32878292309297</v>
+        <v>237.675831560404</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.9567806572563233</v>
+        <v>3.059429058183265</v>
       </c>
       <c r="C24">
-        <v>24.38614819282099</v>
+        <v>77.97784145451452</v>
       </c>
       <c r="D24">
-        <v>0.004763923696012969</v>
+        <v>0.01523325798448415</v>
       </c>
       <c r="E24">
-        <v>1.723117538994636</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="F24">
-        <v>1.499221253984781</v>
+        <v>4.793952547326828</v>
       </c>
       <c r="G24">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="H24">
-        <v>0.2122501066618375</v>
+        <v>0.6786969813811325</v>
       </c>
       <c r="I24">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="J24">
-        <v>1.931336477086734</v>
+        <v>6.175696482067859</v>
       </c>
       <c r="K24">
-        <v>9.72692155524456</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="L24">
-        <v>2.886213527706846</v>
+        <v>9.229038513497381</v>
       </c>
       <c r="M24">
-        <v>17.57935561454348</v>
+        <v>56.21224779512124</v>
       </c>
       <c r="N24">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O24">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P24">
-        <v>78.58027555031376</v>
+        <v>251.2705253762997</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.9178645352296283</v>
+        <v>2.934989758896323</v>
       </c>
       <c r="C25">
-        <v>23.39426534941746</v>
+        <v>74.80616864695149</v>
       </c>
       <c r="D25">
-        <v>0.004439110716739357</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E25">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F25">
-        <v>1.08171660097636</v>
+        <v>3.458927787311763</v>
       </c>
       <c r="G25">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="H25">
-        <v>0.203021841154801</v>
+        <v>0.6491884169732571</v>
       </c>
       <c r="I25">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="J25">
-        <v>1.301706636571279</v>
+        <v>4.162374185716066</v>
       </c>
       <c r="K25">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="L25">
-        <v>2.534236268230401</v>
+        <v>8.103546011851359</v>
       </c>
       <c r="M25">
-        <v>15.43553175911135</v>
+        <v>49.35709562498452</v>
       </c>
       <c r="N25">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O25">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P25">
-        <v>67.03236934141934</v>
+        <v>214.3446118466729</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.9234239812334414</v>
+        <v>2.952766801651598</v>
       </c>
       <c r="C26">
-        <v>23.5359628984751</v>
+        <v>75.2592647623176</v>
       </c>
       <c r="D26">
-        <v>0.003897755751283338</v>
+        <v>0.01246357471457795</v>
       </c>
       <c r="E26">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="F26">
-        <v>1.024784148293395</v>
+        <v>3.276878956400616</v>
       </c>
       <c r="G26">
-        <v>6.925056854320723</v>
+        <v>22.14375887409274</v>
       </c>
       <c r="H26">
-        <v>0.1430381153590644</v>
+        <v>0.4573827483220674</v>
       </c>
       <c r="I26">
-        <v>4.031372316534736</v>
+        <v>12.89083084615258</v>
       </c>
       <c r="J26">
-        <v>1.655431266074344</v>
+        <v>5.293454127486736</v>
       </c>
       <c r="K26">
-        <v>8.337361333066767</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="L26">
-        <v>2.651562021389215</v>
+        <v>8.478710179066701</v>
       </c>
       <c r="M26">
-        <v>16.15013971092206</v>
+        <v>51.64214634836342</v>
       </c>
       <c r="N26">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O26">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P26">
-        <v>68.35288250978483</v>
+        <v>218.5671223336597</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.9956967792830189</v>
+        <v>3.183868357470207</v>
       </c>
       <c r="C27">
-        <v>25.37803103622451</v>
+        <v>81.1495142620776</v>
       </c>
       <c r="D27">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E27">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F27">
-        <v>1.632063643578369</v>
+        <v>5.218733152786165</v>
       </c>
       <c r="G27">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="H27">
-        <v>0.2076359739083193</v>
+        <v>0.663942699177195</v>
       </c>
       <c r="I27">
-        <v>5.851992072389135</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="J27">
-        <v>1.598835325353853</v>
+        <v>5.112481336803427</v>
       </c>
       <c r="K27">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="L27">
-        <v>2.064933255595141</v>
+        <v>6.602889342989998</v>
       </c>
       <c r="M27">
-        <v>12.5770999518685</v>
+        <v>40.21689273146885</v>
       </c>
       <c r="N27">
-        <v>0.06635404566401006</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O27">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P27">
-        <v>72.03395739961648</v>
+        <v>230.337832159248</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.022938064701706</v>
+        <v>3.270975866971067</v>
       </c>
       <c r="C28">
-        <v>26.07234902660696</v>
+        <v>83.36968522737172</v>
       </c>
       <c r="D28">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E28">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F28">
-        <v>1.688996096261335</v>
+        <v>5.400781983697311</v>
       </c>
       <c r="G28">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="H28">
-        <v>0.1661087791266554</v>
+        <v>0.5311541593417558</v>
       </c>
       <c r="I28">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="J28">
-        <v>1.563462862403547</v>
+        <v>4.99937334262636</v>
       </c>
       <c r="K28">
-        <v>7.874174592340836</v>
+        <v>25.17868476365113</v>
       </c>
       <c r="L28">
-        <v>2.440375665703349</v>
+        <v>7.803414678079085</v>
       </c>
       <c r="M28">
-        <v>14.86384539766278</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="N28">
-        <v>0.06635404566401006</v>
+        <v>0.2121755847517159</v>
       </c>
       <c r="O28">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="P28">
-        <v>74.23756537994099</v>
+        <v>237.384151748507</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.180826331210013</v>
+        <v>3.775843881220947</v>
       </c>
       <c r="C29">
-        <v>30.09655941984413</v>
+        <v>96.23761490377042</v>
       </c>
       <c r="D29">
-        <v>0.003572942772009727</v>
+        <v>0.01142494348836312</v>
       </c>
       <c r="E29">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="F29">
-        <v>1.271491443252915</v>
+        <v>4.065757223682246</v>
       </c>
       <c r="G29">
-        <v>8.592200171101636</v>
+        <v>27.47466378822618</v>
       </c>
       <c r="H29">
-        <v>0.2260925049223921</v>
+        <v>0.7229598279929453</v>
       </c>
       <c r="I29">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="J29">
-        <v>1.464419966142689</v>
+        <v>4.682670958930574</v>
       </c>
       <c r="K29">
-        <v>7.375358102328293</v>
+        <v>23.58365495961893</v>
       </c>
       <c r="L29">
-        <v>1.666025694855171</v>
+        <v>5.327331174457837</v>
       </c>
       <c r="M29">
-        <v>10.14743291571209</v>
+        <v>32.44772027198056</v>
       </c>
       <c r="N29">
-        <v>0.08404845784107938</v>
+        <v>0.2687557406855068</v>
       </c>
       <c r="O29">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="P29">
-        <v>71.10084606235449</v>
+        <v>227.354088792272</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.411543340368277</v>
+        <v>4.513591155564964</v>
       </c>
       <c r="C30">
-        <v>35.97700770573648</v>
+        <v>115.0411036914656</v>
       </c>
       <c r="D30">
-        <v>0.003031587806553708</v>
+        <v>0.009693891444671737</v>
       </c>
       <c r="E30">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="F30">
-        <v>1.309446411708227</v>
+        <v>4.187123110956344</v>
       </c>
       <c r="G30">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="H30">
-        <v>0.3183751599927563</v>
+        <v>1.018045472071699</v>
       </c>
       <c r="I30">
-        <v>8.97305451099667</v>
+        <v>28.69249446401702</v>
       </c>
       <c r="J30">
-        <v>1.266334173620973</v>
+        <v>4.049266191538998</v>
       </c>
       <c r="K30">
-        <v>6.377725122303209</v>
+        <v>20.39359535155453</v>
       </c>
       <c r="L30">
-        <v>1.009001477165807</v>
+        <v>3.226411838051929</v>
       </c>
       <c r="M30">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="N30">
-        <v>0.05308323653120803</v>
+        <v>0.1697404678013728</v>
       </c>
       <c r="O30">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="P30">
-        <v>73.6283773579201</v>
+        <v>235.4361947927168</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.474921024811753</v>
+        <v>4.716249442975131</v>
       </c>
       <c r="C31">
-        <v>37.59235976499366</v>
+        <v>120.2063994066397</v>
       </c>
       <c r="D31">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E31">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F31">
-        <v>1.08171660097636</v>
+        <v>3.458927787311763</v>
       </c>
       <c r="G31">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="H31">
-        <v>0.3691306202814564</v>
+        <v>1.180342576315013</v>
       </c>
       <c r="I31">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="J31">
-        <v>0.9126095441179073</v>
+        <v>2.918186249768328</v>
       </c>
       <c r="K31">
-        <v>4.596237657972704</v>
+        <v>14.69706033715383</v>
       </c>
       <c r="L31">
-        <v>0.4693030126352593</v>
+        <v>1.500656668861363</v>
       </c>
       <c r="M31">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="N31">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O31">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P31">
-        <v>68.55188425732662</v>
+        <v>219.2034559848903</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.111333256162342</v>
+        <v>3.553630846779979</v>
       </c>
       <c r="C32">
-        <v>28.32534005662356</v>
+        <v>90.57391346169351</v>
       </c>
       <c r="D32">
-        <v>0.001948877875641669</v>
+        <v>0.006231787357288973</v>
       </c>
       <c r="E32">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="F32">
-        <v>0.7401218848785625</v>
+        <v>2.366634801844889</v>
       </c>
       <c r="G32">
-        <v>5.001429950342744</v>
+        <v>15.99271474240032</v>
       </c>
       <c r="H32">
-        <v>0.2583914341970195</v>
+        <v>0.8262398034205093</v>
       </c>
       <c r="I32">
-        <v>7.282479023417587</v>
+        <v>23.28666217369498</v>
       </c>
       <c r="J32">
-        <v>0.5305869442545972</v>
+        <v>1.696619912656005</v>
       </c>
       <c r="K32">
-        <v>2.672231196495759</v>
+        <v>8.544802521601063</v>
       </c>
       <c r="L32">
-        <v>0.6100939164258372</v>
+        <v>1.950853669519771</v>
       </c>
       <c r="M32">
-        <v>3.715961349415695</v>
+        <v>11.88226376157034</v>
       </c>
       <c r="N32">
-        <v>0.02211801522133669</v>
+        <v>0.07072519491723864</v>
       </c>
       <c r="O32">
-        <v>0.3495554770093975</v>
+        <v>1.117748541109101</v>
       </c>
       <c r="P32">
-        <v>51.32650310281788</v>
+        <v>164.1230869967576</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.8650497981933991</v>
+        <v>2.766107852721184</v>
       </c>
       <c r="C33">
-        <v>22.04813863336981</v>
+        <v>70.50175555097302</v>
       </c>
       <c r="D33">
-        <v>0.003464671778918522</v>
+        <v>0.01107873307962484</v>
       </c>
       <c r="E33">
-        <v>1.253176391996099</v>
+        <v>4.007192494564602</v>
       </c>
       <c r="F33">
-        <v>0.7780768533338732</v>
+        <v>2.488000689118987</v>
       </c>
       <c r="G33">
-        <v>5.257913537539809</v>
+        <v>16.81285395995931</v>
       </c>
       <c r="H33">
-        <v>0.336831691006829</v>
+        <v>1.077062600887449</v>
       </c>
       <c r="I33">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="J33">
-        <v>0.4598420183539844</v>
+        <v>1.470403924301871</v>
       </c>
       <c r="K33">
-        <v>2.315933703629657</v>
+        <v>7.405495518720919</v>
       </c>
       <c r="L33">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M33">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N33">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O33">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P33">
-        <v>45.53046409354733</v>
+        <v>145.5895077141494</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.6960426396774652</v>
+        <v>2.225685752960748</v>
       </c>
       <c r="C34">
-        <v>17.74053314201737</v>
+        <v>56.72763364384203</v>
       </c>
       <c r="D34">
-        <v>0.002381961848006485</v>
+        <v>0.007616628992242076</v>
       </c>
       <c r="E34">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="F34">
-        <v>0.6262569795126296</v>
+        <v>2.002537140022598</v>
       </c>
       <c r="G34">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="H34">
-        <v>0.2168642394153557</v>
+        <v>0.6934512635850703</v>
       </c>
       <c r="I34">
-        <v>6.112080608939763</v>
+        <v>19.54416289577972</v>
       </c>
       <c r="J34">
-        <v>0.261756225832268</v>
+        <v>0.8369991569102955</v>
       </c>
       <c r="K34">
-        <v>1.318300723604575</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="L34">
-        <v>0.3285121088446816</v>
+        <v>1.050459668202955</v>
       </c>
       <c r="M34">
-        <v>2.000902265069989</v>
+        <v>6.398142025460952</v>
       </c>
       <c r="N34">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O34">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P34">
-        <v>34.54583824990326</v>
+        <v>110.4647555105602</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.4953466389397932</v>
+        <v>1.583934509495228</v>
       </c>
       <c r="C35">
-        <v>12.62525162103632</v>
+        <v>40.37086387912404</v>
       </c>
       <c r="D35">
-        <v>0.003248129792736114</v>
+        <v>0.01038631226214829</v>
       </c>
       <c r="E35">
-        <v>1.174852867496343</v>
+        <v>3.756742963654315</v>
       </c>
       <c r="F35">
-        <v>0.4744371056913862</v>
+        <v>1.517073590926212</v>
       </c>
       <c r="G35">
-        <v>3.206044839963298</v>
+        <v>10.25174021948738</v>
       </c>
       <c r="H35">
-        <v>0.1291957170985097</v>
+        <v>0.4131199017102546</v>
       </c>
       <c r="I35">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="J35">
-        <v>0.2263837628819615</v>
+        <v>0.7238911627332288</v>
       </c>
       <c r="K35">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="L35">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M35">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N35">
-        <v>0.01327080913280201</v>
+        <v>0.04243511695034319</v>
       </c>
       <c r="O35">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="P35">
-        <v>25.83495738202767</v>
+        <v>82.61059494885532</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2957625274028845</v>
+        <v>0.9457386745807653</v>
       </c>
       <c r="C36">
-        <v>7.5383096098668</v>
+        <v>24.10471333747921</v>
       </c>
       <c r="D36">
-        <v>0.004222568730556949</v>
+        <v>0.01350220594079277</v>
       </c>
       <c r="E36">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="F36">
-        <v>0.170797358048899</v>
+        <v>0.5461464927334363</v>
       </c>
       <c r="G36">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="H36">
-        <v>0.07844025680980952</v>
+        <v>0.2508227974669404</v>
       </c>
       <c r="I36">
-        <v>2.210752560680339</v>
+        <v>7.069165302728834</v>
       </c>
       <c r="J36">
-        <v>0.2122347777018389</v>
+        <v>0.678647965062402</v>
       </c>
       <c r="K36">
-        <v>1.068892478598303</v>
+        <v>3.417921008640425</v>
       </c>
       <c r="L36">
-        <v>0.2581166569493927</v>
+        <v>0.8253611678737498</v>
       </c>
       <c r="M36">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="N36">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O36">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P36">
-        <v>16.16548585735057</v>
+        <v>51.69121762291149</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2368323997624601</v>
+        <v>0.7573020213748232</v>
       </c>
       <c r="C37">
-        <v>6.036315589855744</v>
+        <v>19.30189451459803</v>
       </c>
       <c r="D37">
-        <v>0.003139858799644911</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E37">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F37">
-        <v>0.1518198738212436</v>
+        <v>0.4854635490963876</v>
       </c>
       <c r="G37">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="H37">
-        <v>0.05075546028870026</v>
+        <v>0.1622971042433143</v>
       </c>
       <c r="I37">
-        <v>1.430486951028455</v>
+        <v>4.574165784118656</v>
       </c>
       <c r="J37">
-        <v>0.1980857925217163</v>
+        <v>0.6334047673915751</v>
       </c>
       <c r="K37">
-        <v>0.9976329800250833</v>
+        <v>3.190059608064396</v>
       </c>
       <c r="L37">
-        <v>0.3050469582129186</v>
+        <v>0.9754268347598856</v>
       </c>
       <c r="M37">
-        <v>1.857980674707848</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="N37">
-        <v>0.02211801522133669</v>
+        <v>0.07072519491723864</v>
       </c>
       <c r="O37">
-        <v>0.3495554770093975</v>
+        <v>1.117748541109101</v>
       </c>
       <c r="P37">
-        <v>13.80139548528927</v>
+        <v>44.13173497074712</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.124531590485425</v>
+        <v>0.3982057577182168</v>
       </c>
       <c r="C38">
-        <v>3.174025098891284</v>
+        <v>10.14935298420177</v>
       </c>
       <c r="D38">
-        <v>0.003681213765100929</v>
+        <v>0.0117711538971014</v>
       </c>
       <c r="E38">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="F38">
-        <v>0.1138649053659327</v>
+        <v>0.3640976618222908</v>
       </c>
       <c r="G38">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H38">
-        <v>0.009228265507036416</v>
+        <v>0.02950856440787534</v>
       </c>
       <c r="I38">
-        <v>0.2600885365506281</v>
+        <v>0.8316665062033922</v>
       </c>
       <c r="J38">
-        <v>0.1839368073415938</v>
+        <v>0.5881615697207484</v>
       </c>
       <c r="K38">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="L38">
-        <v>0.5162333138987854</v>
+        <v>1.6507223357475</v>
       </c>
       <c r="M38">
-        <v>3.144274987967126</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="N38">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O38">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P38">
-        <v>10.63152357775797</v>
+        <v>33.9956623494316</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.08227980085644149</v>
+        <v>0.2631002327781075</v>
       </c>
       <c r="C39">
-        <v>2.09712372605317</v>
+        <v>6.705822507419031</v>
       </c>
       <c r="D39">
-        <v>0.002057148868732873</v>
+        <v>0.00657799776602725</v>
       </c>
       <c r="E39">
-        <v>0.7440734827476839</v>
+        <v>2.379270543647732</v>
       </c>
       <c r="F39">
-        <v>0.1138649053659327</v>
+        <v>0.3640976618222908</v>
       </c>
       <c r="G39">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="H39">
-        <v>0.009228265507036416</v>
+        <v>0.02950856440787534</v>
       </c>
       <c r="I39">
-        <v>0.2600885365506281</v>
+        <v>0.8316665062033922</v>
       </c>
       <c r="J39">
-        <v>0.1131918814409807</v>
+        <v>0.3619455813666144</v>
       </c>
       <c r="K39">
-        <v>0.5700759885857618</v>
+        <v>1.822891204608227</v>
       </c>
       <c r="L39">
-        <v>0.3519772594764444</v>
+        <v>1.125492501646022</v>
       </c>
       <c r="M39">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="N39">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O39">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P39">
-        <v>7.331570310922283</v>
+        <v>23.4436378716843</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.08227980085644149</v>
+        <v>0.2631002327781075</v>
       </c>
       <c r="C40">
-        <v>2.09712372605317</v>
+        <v>6.705822507419031</v>
       </c>
       <c r="D40">
-        <v>0.001299251917094446</v>
+        <v>0.004154524904859316</v>
       </c>
       <c r="E40">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="F40">
-        <v>0.1328423895935882</v>
+        <v>0.4247806054593392</v>
       </c>
       <c r="G40">
-        <v>0.8976925551897235</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="H40">
-        <v>0.02768479652110923</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I40">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J40">
-        <v>0.191011299931655</v>
+        <v>0.6107831685561618</v>
       </c>
       <c r="K40">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="L40">
-        <v>0.5631636151623115</v>
+        <v>1.800788002633635</v>
       </c>
       <c r="M40">
-        <v>3.430118168691411</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="N40">
-        <v>0.004423603044267335</v>
+        <v>0.01414503898344772</v>
       </c>
       <c r="O40">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="P40">
-        <v>9.709760289751546</v>
+        <v>31.04820582770357</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,49 +2418,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1895771087300444</v>
+        <v>0.6061971579549641</v>
       </c>
       <c r="C41">
-        <v>4.831886422865749</v>
+        <v>15.45057753398573</v>
       </c>
       <c r="D41">
-        <v>0.001082709930912038</v>
+        <v>0.003462104087382763</v>
       </c>
       <c r="E41">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="F41">
-        <v>0.3226172318701427</v>
+        <v>1.031610041829824</v>
       </c>
       <c r="G41">
-        <v>2.180110491175042</v>
+        <v>6.971183349251419</v>
       </c>
       <c r="H41">
-        <v>0.02768479652110923</v>
+        <v>0.08852569322362597</v>
       </c>
       <c r="I41">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="J41">
-        <v>0.2971286887825745</v>
+        <v>0.9501071510873629</v>
       </c>
       <c r="K41">
-        <v>1.496449470037624</v>
+        <v>4.785089412096595</v>
       </c>
       <c r="L41">
-        <v>1.079396929061096</v>
+        <v>3.451510338381136</v>
       </c>
       <c r="M41">
-        <v>6.574393156658537</v>
+        <v>21.022466655086</v>
       </c>
       <c r="N41">
-        <v>0.008847206088534671</v>
+        <v>0.02829007796689545</v>
       </c>
       <c r="O41">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="P41">
-        <v>18.32087963467579</v>
+        <v>58.5833661045562</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2468,49 +2468,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.402503890676106</v>
+        <v>1.287057895482093</v>
       </c>
       <c r="C42">
-        <v>10.25890255177361</v>
+        <v>32.80415875250931</v>
       </c>
       <c r="D42">
-        <v>0.0003248129792736115</v>
+        <v>0.001038631226214829</v>
       </c>
       <c r="E42">
-        <v>0.1174852867496343</v>
+        <v>0.3756742963654314</v>
       </c>
       <c r="F42">
-        <v>0.4364821372360753</v>
+        <v>1.395707703652114</v>
       </c>
       <c r="G42">
-        <v>2.949561252766232</v>
+        <v>9.431601001928392</v>
       </c>
       <c r="H42">
-        <v>0.1845653101407282</v>
+        <v>0.5901712881575065</v>
       </c>
       <c r="I42">
-        <v>5.201770731012563</v>
+        <v>16.63333012406785</v>
       </c>
       <c r="J42">
-        <v>0.594257377565149</v>
+        <v>1.900214302174726</v>
       </c>
       <c r="K42">
-        <v>2.992898940075249</v>
+        <v>9.57017882419319</v>
       </c>
       <c r="L42">
-        <v>1.196722682219912</v>
+        <v>3.826674505596475</v>
       </c>
       <c r="M42">
-        <v>7.289001108469245</v>
+        <v>23.30751737846491</v>
       </c>
       <c r="N42">
-        <v>0.01769441217706934</v>
+        <v>0.0565801559337909</v>
       </c>
       <c r="O42">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="P42">
-        <v>31.92181487544837</v>
+        <v>102.0741036926393</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2518,49 +2518,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.7455217091114057</v>
+        <v>2.383901433482717</v>
       </c>
       <c r="C43">
-        <v>19.00164132863043</v>
+        <v>60.76018907060081</v>
       </c>
       <c r="D43">
-        <v>0.001515793903276854</v>
+        <v>0.004846945722335868</v>
       </c>
       <c r="E43">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="F43">
-        <v>1.062739116748705</v>
+        <v>3.398244843674714</v>
       </c>
       <c r="G43">
-        <v>7.181540441517788</v>
+        <v>22.96389809165173</v>
       </c>
       <c r="H43">
-        <v>0.4429567443377477</v>
+        <v>1.416411091578015</v>
       </c>
       <c r="I43">
-        <v>12.48424975443015</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="J43">
-        <v>1.287557651391156</v>
+        <v>4.117130988045239</v>
       </c>
       <c r="K43">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="L43">
-        <v>1.666025694855171</v>
+        <v>5.327331174457837</v>
       </c>
       <c r="M43">
-        <v>10.14743291571209</v>
+        <v>32.44772027198056</v>
       </c>
       <c r="N43">
-        <v>0.06193044261974273</v>
+        <v>0.1980305457682682</v>
       </c>
       <c r="O43">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="P43">
-        <v>62.09474597054531</v>
+        <v>198.5559268386211</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2568,49 +2568,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.260882353664929</v>
+        <v>4.031833296896945</v>
       </c>
       <c r="C44">
-        <v>32.13700412627425</v>
+        <v>102.762198965043</v>
       </c>
       <c r="D44">
-        <v>0.001299251917094446</v>
+        <v>0.004154524904859316</v>
       </c>
       <c r="E44">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="F44">
-        <v>1.233536474797605</v>
+        <v>3.94439133640815</v>
       </c>
       <c r="G44">
-        <v>8.335716583904572</v>
+        <v>26.65452457066718</v>
       </c>
       <c r="H44">
-        <v>0.516782868394039</v>
+        <v>1.652479606841019</v>
       </c>
       <c r="I44">
-        <v>14.56495804683517</v>
+        <v>46.57332434738996</v>
       </c>
       <c r="J44">
-        <v>1.372451562471892</v>
+        <v>4.388590174070199</v>
       </c>
       <c r="K44">
-        <v>6.912171361602361</v>
+        <v>22.10255585587474</v>
       </c>
       <c r="L44">
-        <v>2.299584761912771</v>
+        <v>7.35321767742068</v>
       </c>
       <c r="M44">
-        <v>14.00631585548992</v>
+        <v>44.78699417822669</v>
       </c>
       <c r="N44">
-        <v>0.09289566392961407</v>
+        <v>0.2970458186524022</v>
       </c>
       <c r="O44">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="P44">
-        <v>84.67167306163225</v>
+        <v>270.7485514105158</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2618,49 +2618,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.425997899978192</v>
+        <v>4.559811466728688</v>
       </c>
       <c r="C45">
-        <v>36.34542133328636</v>
+        <v>116.2191535914177</v>
       </c>
       <c r="D45">
-        <v>0.003789484758192134</v>
+        <v>0.01211736430583967</v>
       </c>
       <c r="E45">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="F45">
-        <v>1.499221253984781</v>
+        <v>4.793952547326828</v>
       </c>
       <c r="G45">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="H45">
-        <v>0.3691306202814564</v>
+        <v>1.180342576315013</v>
       </c>
       <c r="I45">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="J45">
-        <v>1.549313877223424</v>
+        <v>4.954130144955537</v>
       </c>
       <c r="K45">
-        <v>7.802915093767615</v>
+        <v>24.95082336307511</v>
       </c>
       <c r="L45">
-        <v>2.510771117598639</v>
+        <v>8.028513178408295</v>
       </c>
       <c r="M45">
-        <v>15.29261016874921</v>
+        <v>48.90008548030875</v>
       </c>
       <c r="N45">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O45">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P45">
-        <v>89.96816555826724</v>
+        <v>287.6847665479771</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2668,49 +2668,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.141910209183317</v>
+        <v>3.651404581934006</v>
       </c>
       <c r="C46">
-        <v>29.10467657644061</v>
+        <v>93.06594209620739</v>
       </c>
       <c r="D46">
-        <v>0.004655652702921764</v>
+        <v>0.01488704757574588</v>
       </c>
       <c r="E46">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="F46">
-        <v>1.745928548944301</v>
+        <v>5.582830814608457</v>
       </c>
       <c r="G46">
-        <v>11.79824501106493</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="H46">
-        <v>0.2583914341970195</v>
+        <v>0.8262398034205093</v>
       </c>
       <c r="I46">
-        <v>7.282479023417587</v>
+        <v>23.28666217369498</v>
       </c>
       <c r="J46">
-        <v>1.874740536366243</v>
+        <v>5.994723691384551</v>
       </c>
       <c r="K46">
-        <v>9.441883560951677</v>
+        <v>30.19163557632375</v>
       </c>
       <c r="L46">
-        <v>3.824819552977363</v>
+        <v>12.2303518512201</v>
       </c>
       <c r="M46">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="N46">
-        <v>0.07520125175254472</v>
+        <v>0.2404656627186113</v>
       </c>
       <c r="O46">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="P46">
-        <v>92.72159498560438</v>
+        <v>296.4892108432964</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2718,49 +2718,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.8622700751914922</v>
+        <v>2.757219331343546</v>
       </c>
       <c r="C47">
-        <v>21.97728985884099</v>
+        <v>70.27520749328995</v>
       </c>
       <c r="D47">
-        <v>0.005197007668377784</v>
+        <v>0.01661809961943726</v>
       </c>
       <c r="E47">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="F47">
-        <v>1.290468927480571</v>
+        <v>4.126440167319296</v>
       </c>
       <c r="G47">
-        <v>8.72044196470017</v>
+        <v>27.88473339700568</v>
       </c>
       <c r="H47">
-        <v>0.1707229118801736</v>
+        <v>0.5459084415456935</v>
       </c>
       <c r="I47">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="J47">
-        <v>2.002081402987347</v>
+        <v>6.401912470421993</v>
       </c>
       <c r="K47">
-        <v>10.08321904811066</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="L47">
-        <v>2.909678678338608</v>
+        <v>9.304071346940454</v>
       </c>
       <c r="M47">
-        <v>17.72227720490562</v>
+        <v>56.66925793979704</v>
       </c>
       <c r="N47">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O47">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P47">
-        <v>73.40140067408468</v>
+        <v>234.7104076890693</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2768,49 +2768,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.8895113606101785</v>
+        <v>2.844326840844406</v>
       </c>
       <c r="C48">
-        <v>22.67160784922345</v>
+        <v>72.49537845858416</v>
       </c>
       <c r="D48">
-        <v>0.003139858799644911</v>
+        <v>0.01004010185341001</v>
       </c>
       <c r="E48">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="F48">
-        <v>1.404333832846503</v>
+        <v>4.490537829141585</v>
       </c>
       <c r="G48">
-        <v>9.489892726291357</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="H48">
-        <v>0.1891794428942465</v>
+        <v>0.6049255703614443</v>
       </c>
       <c r="I48">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="J48">
-        <v>2.044528358527715</v>
+        <v>6.537642063434471</v>
       </c>
       <c r="K48">
-        <v>10.29699754383032</v>
+        <v>32.92597238323609</v>
       </c>
       <c r="L48">
-        <v>4.176796812453808</v>
+        <v>13.35584435286613</v>
       </c>
       <c r="M48">
-        <v>25.44004308446129</v>
+        <v>81.34780575228928</v>
       </c>
       <c r="N48">
-        <v>0.04865963348694069</v>
+        <v>0.1555954288179251</v>
       </c>
       <c r="O48">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="P48">
-        <v>83.89121865738048</v>
+        <v>268.2529481969203</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2818,49 +2818,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.9178645352296283</v>
+        <v>2.934989758896323</v>
       </c>
       <c r="C49">
-        <v>23.39426534941746</v>
+        <v>74.80616864695149</v>
       </c>
       <c r="D49">
-        <v>0.004439110716739357</v>
+        <v>0.01419462675826933</v>
       </c>
       <c r="E49">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="F49">
-        <v>1.08171660097636</v>
+        <v>3.458927787311763</v>
       </c>
       <c r="G49">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="H49">
-        <v>0.203021841154801</v>
+        <v>0.6491884169732571</v>
       </c>
       <c r="I49">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="J49">
-        <v>1.301706636571279</v>
+        <v>4.162374185716066</v>
       </c>
       <c r="K49">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="L49">
-        <v>2.534236268230401</v>
+        <v>8.103546011851359</v>
       </c>
       <c r="M49">
-        <v>15.43553175911135</v>
+        <v>49.35709562498452</v>
       </c>
       <c r="N49">
-        <v>0.0575068395754754</v>
+        <v>0.1838855067848205</v>
       </c>
       <c r="O49">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="P49">
-        <v>67.03236934141934</v>
+        <v>214.3446118466729</v>
       </c>
     </row>
   </sheetData>
